--- a/call_of_cthulhu/magic/CJE/旧版手册呪文_仅名称.xlsx
+++ b/call_of_cthulhu/magic/CJE/旧版手册呪文_仅名称.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d2c6fb186291c3cd/github/alll/coc/magic/CJE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d2c6fb186291c3cd/github/alll/call_of_cthulhu/magic/CJE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="220" documentId="13_ncr:1_{E16AFC2B-E770-4477-B830-0D96E1264306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40D9DBFB-1446-4467-ACBB-5CAC039F36CB}"/>
+  <xr:revisionPtr revIDLastSave="223" documentId="13_ncr:1_{E16AFC2B-E770-4477-B830-0D96E1264306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F10992F-87E2-44EA-8ABA-9E4F1C439EC7}"/>
   <bookViews>
-    <workbookView xWindow="21276" yWindow="-2610" windowWidth="13242" windowHeight="12432" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8196" yWindow="2376" windowWidth="14610" windowHeight="10512" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="旧版手册呪文" sheetId="1" r:id="rId1"/>
@@ -1020,9 +1020,6 @@
     <t>目录-旧版手册呪文(中日英三语):</t>
   </si>
   <si>
-    <t>QQ：3612464276（需使用.send指令）</t>
-  </si>
-  <si>
     <t>提问箱：https://box.n3ko.cc/_/no_reply31cat</t>
   </si>
   <si>
@@ -1391,6 +1388,9 @@
   <si>
     <t xml:space="preserve">呪文の使い手がふわっと煙のように消えたり、あるいは前もって準備しておいた箱の側に瞬時に戻ってきたりできる呪文。
 </t>
+  </si>
+  <si>
+    <t>Issues - https://github.com/errrr-er/alll/issues</t>
   </si>
 </sst>
 </file>
@@ -1504,7 +1504,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1523,7 +1523,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1813,9 +1812,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F166"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1833,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1958,7 +1957,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2126,7 +2125,7 @@
         <v>39</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2166,7 +2165,7 @@
         <v>44</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2190,15 +2189,15 @@
         <v>47</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
+        <v>349</v>
+      </c>
+      <c r="B45" s="11" t="s">
         <v>350</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2534,7 +2533,7 @@
         <v>89</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2950,7 +2949,7 @@
         <v>140</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -3179,8 +3178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB29E7B-1F47-4182-A380-70416D0F951F}">
   <dimension ref="A1:X20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4"/>
@@ -3189,144 +3188,147 @@
     <col min="25" max="16384" width="9.15625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:19">
       <c r="A1" s="12" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:19">
       <c r="A2" s="12" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:19">
+      <c r="C3" s="12" t="s">
+        <v>339</v>
+      </c>
       <c r="D3" s="12" t="s">
-        <v>340</v>
+        <v>53</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="R3" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S3" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="T3" s="12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="14.7">
-      <c r="C4" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="D4" s="13"/>
+    <row r="4" spans="1:19" ht="14.7">
+      <c r="B4" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="12" t="s">
+        <v>439</v>
+      </c>
       <c r="E4" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="14.7">
+      <c r="B5" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="E5" s="12" t="s">
         <v>444</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>453</v>
-      </c>
-      <c r="I4" s="12" t="s">
+      <c r="H5" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="14.7">
+      <c r="B6" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="J4" s="12" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="14.7">
-      <c r="C5" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="12" t="s">
-        <v>441</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="14.7">
-      <c r="C6" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="12" t="s">
+    </row>
+    <row r="7" spans="1:19" ht="14.7">
+      <c r="B7" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="12" t="s">
         <v>442</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="E7" s="12" t="s">
         <v>446</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="H7" s="12" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="14.7">
-      <c r="C7" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="12" t="s">
-        <v>443</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>447</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:19">
+      <c r="B9" s="12" t="s">
+        <v>327</v>
+      </c>
       <c r="C9" s="12" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>353</v>
@@ -3341,10 +3343,10 @@
         <v>356</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>365</v>
@@ -3356,7 +3358,7 @@
         <v>367</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="O9" s="12" t="s">
         <v>373</v>
@@ -3373,228 +3375,228 @@
       <c r="S9" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="T9" s="12" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="C10" s="12" t="s">
-        <v>328</v>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="B10" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>385</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>400</v>
       </c>
       <c r="I10" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="B11" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="B12" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="I12" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="J12" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="K12" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="M10" s="12" t="s">
-        <v>413</v>
-      </c>
-      <c r="N10" s="12" t="s">
+      <c r="L12" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="M12" s="12" t="s">
         <v>417</v>
       </c>
-      <c r="O10" s="12" t="s">
+      <c r="N12" s="12" t="s">
         <v>420</v>
       </c>
-      <c r="P10" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="Q10" s="12" t="s">
+      <c r="O12" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="P12" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="R10" s="12" t="s">
+      <c r="Q12" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="S10" s="12" t="s">
-        <v>433</v>
-      </c>
-      <c r="T10" s="12" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="C11" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="P11" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q11" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="R11" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="S11" s="12" t="s">
+      <c r="R12" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="T11" s="12" t="s">
+      <c r="S12" s="12" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
-      <c r="C12" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="E12" s="12" t="s">
+    <row r="13" spans="1:19">
+      <c r="B13" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="E13" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="F13" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="G13" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="H13" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="I13" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="J13" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="K13" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="M12" s="12" t="s">
+      <c r="L13" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="N12" s="12" t="s">
+      <c r="M13" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="O12" s="12" t="s">
+      <c r="N13" s="12" t="s">
         <v>421</v>
       </c>
-      <c r="P12" s="12" t="s">
+      <c r="O13" s="12" t="s">
         <v>425</v>
       </c>
-      <c r="Q12" s="12" t="s">
+      <c r="P13" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="R12" s="12" t="s">
+      <c r="Q13" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="S12" s="12" t="s">
+      <c r="R13" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="T12" s="12" t="s">
+      <c r="S13" s="12" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
-      <c r="C13" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>403</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>409</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>419</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>422</v>
-      </c>
-      <c r="P13" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="Q13" s="12" t="s">
-        <v>429</v>
-      </c>
-      <c r="R13" s="12" t="s">
-        <v>432</v>
-      </c>
-      <c r="S13" s="12" t="s">
-        <v>436</v>
-      </c>
-      <c r="T13" s="12" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:19">
+      <c r="B15" s="12" t="s">
+        <v>327</v>
+      </c>
       <c r="C15" s="12" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>358</v>
@@ -3609,10 +3611,10 @@
         <v>361</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="K15" s="12" t="s">
         <v>369</v>
@@ -3624,7 +3626,7 @@
         <v>371</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="O15" s="12" t="s">
         <v>379</v>
@@ -3641,32 +3643,29 @@
       <c r="S15" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="T15" s="12" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="C16" s="12" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="12" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" s="12" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" s="12" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3">
-      <c r="C20" s="12" t="s">
+    </row>
+    <row r="16" spans="1:19">
+      <c r="B16" s="12" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="12" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="12" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="12" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="12" t="s">
         <v>328</v>
       </c>
     </row>
@@ -3687,42 +3686,42 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="8"/>
       <c r="C4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="9"/>
       <c r="C6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="10"/>
       <c r="C8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="11"/>
       <c r="C10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -3735,14 +3734,14 @@
   <dimension ref="A1:B203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3750,7 +3749,7 @@
         <v>328</v>
       </c>
       <c r="B2" t="s">
-        <v>330</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3758,7 +3757,7 @@
         <v>328</v>
       </c>
       <c r="B3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:2">

--- a/call_of_cthulhu/magic/CJE/旧版手册呪文_仅名称.xlsx
+++ b/call_of_cthulhu/magic/CJE/旧版手册呪文_仅名称.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d2c6fb186291c3cd/github/alll/call_of_cthulhu/magic/CJE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="223" documentId="13_ncr:1_{E16AFC2B-E770-4477-B830-0D96E1264306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F10992F-87E2-44EA-8ABA-9E4F1C439EC7}"/>
+  <xr:revisionPtr revIDLastSave="828" documentId="13_ncr:1_{E16AFC2B-E770-4477-B830-0D96E1264306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A70CC67A-C23F-4CD9-91A3-E9889503E1BC}"/>
   <bookViews>
-    <workbookView xWindow="8196" yWindow="2376" windowWidth="14610" windowHeight="10512" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1770" windowWidth="12792" windowHeight="10512" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="旧版手册呪文" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="AZ目录" sheetId="2" r:id="rId1"/>
+    <sheet name="旧版手册呪文" sheetId="1" r:id="rId2"/>
     <sheet name="颜色对应" sheetId="5" r:id="rId3"/>
-    <sheet name="牌堆内目录" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet2 (5)" sheetId="9" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet2 (2)" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet2 (3)" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet2 (4)" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="674">
   <si>
     <t>Key</t>
   </si>
@@ -213,9 +217,6 @@
     <t>心臓の探求</t>
   </si>
   <si>
-    <t>SEEKHEART</t>
-  </si>
-  <si>
     <t>身体部分の転移</t>
   </si>
   <si>
@@ -291,9 +292,6 @@
     <t>チャウグナー・フォーンの奴隷の召喚</t>
   </si>
   <si>
-    <t>SUMMONTHRALLOFCHAUGNARFAUGN</t>
-  </si>
-  <si>
     <t>チャウグナー・フォーンの呪い</t>
   </si>
   <si>
@@ -357,9 +355,6 @@
     <t>ニャンベのパワーの招来</t>
   </si>
   <si>
-    <t>CALLPOWEROFNYAMBE</t>
-  </si>
-  <si>
     <t>ニョグタのわしづかみ</t>
   </si>
   <si>
@@ -402,9 +397,6 @@
     <t>光の空隙</t>
   </si>
   <si>
-    <t>VOIDLIGHT</t>
-  </si>
-  <si>
     <t>光を消す</t>
   </si>
   <si>
@@ -456,18 +448,12 @@
     <t>ミ＝ゴの催眠術</t>
   </si>
   <si>
-    <t>MI-GOHYPNOSIS</t>
-  </si>
-  <si>
     <t>未来の視察</t>
   </si>
   <si>
     <t>魅惑</t>
   </si>
   <si>
-    <t>MESMERIZE</t>
-  </si>
-  <si>
     <t>無欠の投擲</t>
   </si>
   <si>
@@ -477,9 +463,6 @@
     <t>冥王星の薬</t>
   </si>
   <si>
-    <t>PLUTONIANDRUG</t>
-  </si>
-  <si>
     <t>名状し難い誓約</t>
   </si>
   <si>
@@ -513,9 +496,6 @@
     <t>夢の時代へ送る</t>
   </si>
   <si>
-    <t>SENDDREAMING</t>
-  </si>
-  <si>
     <t>夢みる人の罠</t>
   </si>
   <si>
@@ -540,9 +520,6 @@
     <t>レンのガラス</t>
   </si>
   <si>
-    <t>GLASSFROMLENG</t>
-  </si>
-  <si>
     <t>ろうそく交信</t>
   </si>
   <si>
@@ -699,9 +676,6 @@
     <t>種族の橿</t>
   </si>
   <si>
-    <t>CAGEOFKIND</t>
-  </si>
-  <si>
     <t>BINDLOUP-GAROU/兽化人束缚术/BindWere-Creature</t>
   </si>
   <si>
@@ -1017,15 +991,6 @@
     <t>\n</t>
   </si>
   <si>
-    <t>目录-旧版手册呪文(中日英三语):</t>
-  </si>
-  <si>
-    <t>提问箱：https://box.n3ko.cc/_/no_reply31cat</t>
-  </si>
-  <si>
-    <t>汇报错误等请使用以下渠道：</t>
-  </si>
-  <si>
     <t>Synonym</t>
   </si>
   <si>
@@ -1035,12 +1000,6 @@
     <t>已收录</t>
   </si>
   <si>
-    <t>仅对应名称</t>
-  </si>
-  <si>
-    <t>未收录</t>
-  </si>
-  <si>
     <t>无对应</t>
   </si>
   <si>
@@ -1059,9 +1018,6 @@
     <t>中+英+简短日释义</t>
   </si>
   <si>
-    <t>HEAL</t>
-  </si>
-  <si>
     <t>日</t>
   </si>
   <si>
@@ -1074,15 +1030,9 @@
     <t>CALLFISH/诱鱼术/AttractFish</t>
   </si>
   <si>
-    <t>COMMANDSHARK</t>
-  </si>
-  <si>
     <t>イルカに命令する</t>
   </si>
   <si>
-    <t>PORPOISE</t>
-  </si>
-  <si>
     <t>IMPLANTSUGGESTION/心理暗示术/MentalSuggestion</t>
   </si>
   <si>
@@ -1386,18 +1336,757 @@
     <t>この呪文の対象は突然激しい心臓発作に襲われ耐久力を失う。</t>
   </si>
   <si>
-    <t xml:space="preserve">呪文の使い手がふわっと煙のように消えたり、あるいは前もって準備しておいた箱の側に瞬時に戻ってきたりできる呪文。
-</t>
-  </si>
-  <si>
-    <t>Issues - https://github.com/errrr-er/alll/issues</t>
+    <t>呪文の使い手がふわっと煙のように消えたり、あるいは前もって準備しておいた箱の側に瞬時に戻ってきたりできる呪文。</t>
+  </si>
+  <si>
+    <t>塞壬之歌</t>
+  </si>
+  <si>
+    <t>真言术</t>
+  </si>
+  <si>
+    <t>器官转移术</t>
+  </si>
+  <si>
+    <t>活尸创造术</t>
+  </si>
+  <si>
+    <t>僵尸之眼</t>
+  </si>
+  <si>
+    <t>塔昆·阿提普之镜</t>
+  </si>
+  <si>
+    <t>夜雾唤起术</t>
+  </si>
+  <si>
+    <t>SIREN'SSONG/Siren'sSong</t>
+  </si>
+  <si>
+    <t>SEKHMENKENHEP'SWORDS/WordsofPower</t>
+  </si>
+  <si>
+    <t>TRANSFERORGAN/TransferOrgan</t>
+  </si>
+  <si>
+    <t>CREATEZOMBI/CreateZombi</t>
+  </si>
+  <si>
+    <t>EYESOFTHEZOMBIE/EyesoftheZombie</t>
+  </si>
+  <si>
+    <t>MIRROROFTARKHUNATEP/MirrorofTarkhunAtep</t>
+  </si>
+  <si>
+    <t>RAISENIGHTFOG/RaiseNightFog</t>
+  </si>
+  <si>
+    <t>コスト：3服分ごとに10MP</t>
+  </si>
+  <si>
+    <t>必要ラウンド：1服分を振りかけるのに1R</t>
+  </si>
+  <si>
+    <t>別名：エジプトの粉、死者の防御</t>
+  </si>
+  <si>
+    <t>2000年以上前のエジプトのミイラから取った粉から超自然の存在にダメージを与える灰緑色の粉を作り出す。</t>
+  </si>
+  <si>
+    <t>コスト：さまざまなMP、1d3正気度ポイント</t>
+  </si>
+  <si>
+    <t>必要ラウンド：１時間</t>
+  </si>
+  <si>
+    <t>別名：逆なる呪文、交換の儀式、他者なる肉の外套</t>
+  </si>
+  <si>
+    <t>術者を知っていて愛しているか強い好意を持っている対象の人間との精神を交換する。</t>
+  </si>
+  <si>
+    <t>コスト：10MP、1d10正気度ポイント</t>
+  </si>
+  <si>
+    <t>必要ラウンド：5R以上</t>
+  </si>
+  <si>
+    <t>別名：</t>
+  </si>
+  <si>
+    <t>対象と永久的に精神を交換する強力な呪文で、他者を乗っ取りより長生きするために使われる。対抗POWロールが必要で、失敗した場合は再度「精神転移」を使用しなければ精神が行き場を失い永遠の彼方に消滅する。</t>
+  </si>
+  <si>
+    <t>深層のバージョンあり。</t>
+  </si>
+  <si>
+    <t>コスト：16MP、1d6正気度ポイント</t>
+  </si>
+  <si>
+    <t>必要ラウンド：１週間</t>
+  </si>
+  <si>
+    <t>別名：死にざるものの儀式、黒き従属、灰の頭巾、死者の目覚め</t>
+  </si>
+  <si>
+    <t>死体の上か死体の入った棺に儀式用の液体を流し込みゾンビを作り出す。</t>
+  </si>
+  <si>
+    <t>コスト：5MP、1正気度ポイント</t>
+  </si>
+  <si>
+    <t>必要ラウンド：半日</t>
+  </si>
+  <si>
+    <t>別名：銀の警告、憎しみの反射、すべてを見る目</t>
+  </si>
+  <si>
+    <t>嫌がらせや警告目的で対象が除く鏡に術者の姿を映し出すことができる。対象が聞き取ることができる単語や短い語句を言うことができる。</t>
+  </si>
+  <si>
+    <t>消耗：6点魔法值；5点理智值</t>
+  </si>
+  <si>
+    <t>施法者通过吟唱一段歌谣或旋律，诱骗一名目标，以为施法者就是他或她心中所念之人。施法者须和目标进行一次POW对抗检定并胜出，法术才能生效。若成功，目标的行动好像完全被施法者魅惑了一般——他愿意照着施法者的意愿说任何话、做任何事。若目标被强迫去做对施法者所爱的他人或者目标自己造成伤害的行动时，需要再次进行POW对抗检定。法术会影响所有听到歌声的人，每个人都要各自和施法者进行POW对抗，否则会受到影响。法术的效果持续1D10小时。</t>
+  </si>
+  <si>
+    <t>别名：魅力术、美人鱼的催眠曲、精神敏感术</t>
+  </si>
+  <si>
+    <t>消耗：3+ 点魔法值；1D6 点理智值</t>
+  </si>
+  <si>
+    <t>施法用时：10+ 分钟</t>
+  </si>
+  <si>
+    <t>施法者与大群听众创造强烈的联系。施法者必须即兴演讲并看似真诚，来维持听众的注意力。施法者在讲到每个论据、论点和命令时都要消耗3 点魔法值并进行一次 KP 认为合适的社交检定（「魅惑」「话术」或「说服」）并成功，不然演讲会在困惑不解中犹犹豫豫地结束。在演讲成功结束后，听众会在 1D3 天中完全相信演讲的内容。</t>
+  </si>
+  <si>
+    <t>别名：塞克曼克尼普 (Sekhmenkenhep) 真言术、邪恶唬骗术</t>
+  </si>
+  <si>
+    <t>\n\n</t>
+  </si>
+  <si>
+    <t>消耗：13点魔法值；5点POW；1D8点理智值</t>
+  </si>
+  <si>
+    <t>把任何人类的内脏永久改换成另一个人的对应器官，只有心脏不能被移动或交换。手头必须有活着的供体——供体是否同意执行此过程并不重要。若供体和受体知晓这一过程，他们都要进行理智检定（损失1D8点）；若供体不知道这一过程，但后来知道自己在过程中的作用，要损失1D10点理智值。首先，用供受体双方的血液混合上一点避役的唾液，制成糊状物。接下来要有一群人手拉着手围起供体、受体和施法者，并且吟诵古老的诗句；从每名吟诵者和施法者身上合计消耗63点魔法值，每个人消耗的数量基本相同（这些能量会在过程中保证目标的存活）。施法者用糊状物在供受体的身体上各画出一个标志，标志着要转移的器官。在一小时的冥想和形象化以后，施法者用手向供体身上画着标志的地方掏去；用拇指和食指掐断大血管、连通新管，抬出器官并将它放置到圆形石板上。对另一个人同样施行此过程，然后将器官装进新身体，缝合正位。供体是否有幸装上换下来的器官（并因此捡回一条命），完全取决于施法者的一念。</t>
+  </si>
+  <si>
+    <t>别名：肉体操作、血肉偷盗</t>
+  </si>
+  <si>
+    <t>消耗：3点魔法值；1D8+2点理智值</t>
+  </si>
+  <si>
+    <t>可以使施法者直接控制一具僵尸（已经唤起并准备好的），然后以这具僵尸的视角去感知事件。首先需要把僵尸的眼球摘下来，浸泡在特殊化学物质当中。施法者也摘下自己的眼球，把自己的眼睛替换成僵尸的。此后施法者就可以像自己在目标僵尸的身体里一般移动、感觉、反应，直到把僵尸眼睛从眼眶里摘下来为止。激活之后，和这具目标僵尸之间的联系会在1D3个月中维持不变（不在使用期限内的僵尸会腐朽）。施法者的眼睛（如果保养得当）只要支付法术的消耗并进行简短的吟唱后，就可以再次放入。深层魔法：施法者只移除一只眼并替换成僵尸的，这完全可以让施法者同时控制两具僵尸。假设有理智的人尝试这种“双重感知”，将引发理智检定（损失1D4/1D8点），每天还要额外损失1D4点理智值，直到移除僵尸眼为止。</t>
+  </si>
+  <si>
+    <t>别名：死亡视野、尸体躯壳、潜近的目击者</t>
+  </si>
+  <si>
+    <t>消耗：5点魔法值；1点理智值</t>
+  </si>
+  <si>
+    <t>施法用时：半天</t>
+  </si>
+  <si>
+    <t>施法者可以将自己的镜像投射到施法者预定的目标能注视到的镜面、或者可以镜面反射的平面上，来进行骚扰或警告。目标可以身处地球上任何位置。施法者需要一面镜子，大小足够映出他的头颈部。施法者注视镜面，并在头脑中维持目标的影像，念出简短的咒语并等待。当目标下一次注视阴暗的窗户、镜子之类能反射的表面时，施法者的镜像就会浮现。若施法者在目标照镜子之前就已困乏，则法术会因集中失败而终止。施法者的镜像有时是直视目标的。也有时镜像会出现在目标的身后。如果目标戴眼镜，从镜片中反射的镜像甚至可能是模糊的。目标能听到施法者说出的单词和短词组。施法者也能透过他自己的镜子看到目标和目标的周围环境。</t>
+  </si>
+  <si>
+    <t>别名：银之警告、仇恨投射术、全视之眼</t>
+  </si>
+  <si>
+    <t>消耗：3点魔法值；1D2点理智值</t>
+  </si>
+  <si>
+    <t>施法用时：5分钟</t>
+  </si>
+  <si>
+    <t>从水体中召唤浓密的低雾。只能在夜间施放。仪式需要从起雾地点的水体处取来的一碗水。施法者一边执行正确的手势，一边轻轻吹动碗中水的表面。雾气会突然形成；如果有风，则雾气会自然随风移动。太阳升起后雾气就消散。只要有必需的水，施法者可以和起雾起点的水体相隔很多里。</t>
+  </si>
+  <si>
+    <t>别名：波塞冬的吐息、水蒸气披风、永恒秘密的黑暗迷雾</t>
+  </si>
+  <si>
+    <t>消耗：10点魔法值；10点理智值</t>
+  </si>
+  <si>
+    <t>施法用时：可变</t>
+  </si>
+  <si>
+    <t>用河豚内脏和生物碱制造麻药，使目标濒临死亡。毒剂必须被目标吸入。目标随后须在极难CON检定成功，方可抵抗毒剂的作用。如果失败，目标会陷入深度昏迷状态，和死亡难以区分。可怕的是，目标仍有意识却无法行动。他将被置入棺材，活着埋到坟地里。一支小管子连接着棺材内和地表，让他能够呼吸。在这期间，不幸的法术目标必须每三小时进行一次理智检定，失败会损失1D6点理智值。如果目标在此期间陷入疯狂，他会屈服于施法者的意志，为消除对坟墓的恐惧感到高兴。三个夜晚之后，施法者来到坟地并施放本法术。如果施法者察觉到目标精神上的抵抗，他和目标之间必须进行一次POW对抗检定。不论施法者疯狂与否，施法成功后目标的POW将被抽走，只剩1点。如果施法失败，施法者可以直接盖住呼吸孔，任由目标窒息而死。施法成功后，施法者即创造了一个僵尸仆从，可以执行简单的命令。这个不幸的僵尸自此始终在施法者的这个法术的作用下，直到他被释放——一般意味着目标真正的死亡和主人的死亡。</t>
+  </si>
+  <si>
+    <t>别名：洛阿的祝福、伏都祭司的仆人</t>
+  </si>
+  <si>
+    <t>灵魂之歌</t>
+  </si>
+  <si>
+    <t>精神囚禁术</t>
+  </si>
+  <si>
+    <t>灵魂束缚术</t>
+  </si>
+  <si>
+    <t>灵魂抽取术</t>
+  </si>
+  <si>
+    <t>灵魂陷阱术</t>
+  </si>
+  <si>
+    <t>肢体凋萎术</t>
+  </si>
+  <si>
+    <t>敌人束缚术</t>
+  </si>
+  <si>
+    <t>特兹查普特尔之铃</t>
+  </si>
+  <si>
+    <t>动物号令法</t>
+  </si>
+  <si>
+    <t>动物残废法</t>
+  </si>
+  <si>
+    <t>动物治愈法</t>
+  </si>
+  <si>
+    <t>动物魅惑法</t>
+  </si>
+  <si>
+    <t>透特之咏</t>
+  </si>
+  <si>
+    <t>纳克-提特障壁创造术</t>
+  </si>
+  <si>
+    <t>血肉移植术</t>
+  </si>
+  <si>
+    <t>肉体屈服术</t>
+  </si>
+  <si>
+    <t>血肉防护术</t>
+  </si>
+  <si>
+    <t>血肉熔解术</t>
+  </si>
+  <si>
+    <t>相貌吞食术</t>
+  </si>
+  <si>
+    <t>尼安贝的魔力</t>
+  </si>
+  <si>
+    <t>尼约格萨紧握术</t>
+  </si>
+  <si>
+    <t>人面鼠诅咒</t>
+  </si>
+  <si>
+    <t>SOULSINGING/SoulSinging</t>
+  </si>
+  <si>
+    <t>IMPRISONMIND/ImprisonMind</t>
+  </si>
+  <si>
+    <t>BINDSOUL/BindSoul</t>
+  </si>
+  <si>
+    <t>SOULEXTRACTION/SoulExtraction</t>
+  </si>
+  <si>
+    <t>SOUL-TRAP/Soul-Trap</t>
+  </si>
+  <si>
+    <t>WITHERLIMB/WitherLimb</t>
+  </si>
+  <si>
+    <t>BINDENEMY/BindEnemy</t>
+  </si>
+  <si>
+    <t>CHIMEOFTEZCHAPTL/ChimeofTezchaptl</t>
+  </si>
+  <si>
+    <t>COMMANDANIMALSPELLS/CommandAnimal</t>
+  </si>
+  <si>
+    <t>LAME/Lame</t>
+  </si>
+  <si>
+    <t>HEALANIMAL/HealAnimal</t>
+  </si>
+  <si>
+    <t>CHARMANIMAL/CharmAnimal</t>
+  </si>
+  <si>
+    <t>CHANTOFTHOTH/ChantofThoth</t>
+  </si>
+  <si>
+    <t>CREATEBARRIEROFNAACH-TITH/CreateBarrierofNaach-Tich</t>
+  </si>
+  <si>
+    <t>GRAFTFLESH/GraftFlesh</t>
+  </si>
+  <si>
+    <t>COMPELFLESH/CompelFlesh</t>
+  </si>
+  <si>
+    <t>FLESHWARD/FleshWard</t>
+  </si>
+  <si>
+    <t>MELTFLESH/MeltFlesh</t>
+  </si>
+  <si>
+    <t>CONSUMELIKENESS/ConsumeLikeness</t>
+  </si>
+  <si>
+    <t>POWEROFNYAMBE/PowerofNyambe</t>
+  </si>
+  <si>
+    <t>CLUTCHOFNYOGTHA/ClutchofNyogtha</t>
+  </si>
+  <si>
+    <t>CURSEOFTHERATLTHING/CurseoftheRat-thing</t>
+  </si>
+  <si>
+    <t>诅咒之笛创造术</t>
+  </si>
+  <si>
+    <t>心中的勇气</t>
+  </si>
+  <si>
+    <t>灰色束缚</t>
+  </si>
+  <si>
+    <t>折磨术</t>
+  </si>
+  <si>
+    <t>反胃法阵</t>
+  </si>
+  <si>
+    <t>哈斯塔之歌</t>
+  </si>
+  <si>
+    <t>哈斯塔释放术</t>
+  </si>
+  <si>
+    <t>伤害偏转术</t>
+  </si>
+  <si>
+    <t>光明与黑暗之眼</t>
+  </si>
+  <si>
+    <t>抑光术</t>
+  </si>
+  <si>
+    <t>皮肤控制术</t>
+  </si>
+  <si>
+    <t>生魂棒创造术</t>
+  </si>
+  <si>
+    <t>守卫术</t>
+  </si>
+  <si>
+    <t>复活术</t>
+  </si>
+  <si>
+    <t>蒲林的埃及十字架</t>
+  </si>
+  <si>
+    <t>旧印开光术</t>
+  </si>
+  <si>
+    <t>平凡无奇术</t>
+  </si>
+  <si>
+    <t>忘却之波</t>
+  </si>
+  <si>
+    <t>鬼魂号令法</t>
+  </si>
+  <si>
+    <t>CREATECURSEWHISTLE/CreateCurseWhistle</t>
+  </si>
+  <si>
+    <t>HEART'SCOURAGE/Heart'sCourage</t>
+  </si>
+  <si>
+    <t>GRAYBINDING/GreyBinding</t>
+  </si>
+  <si>
+    <t>WRACK/Wrack</t>
+  </si>
+  <si>
+    <t>CIRCLEOFNAUSEA/CircleofNausea</t>
+  </si>
+  <si>
+    <t>SONGOFHASTUR/SongofHastur</t>
+  </si>
+  <si>
+    <t>FREEHASTUR/FreeHastur</t>
+  </si>
+  <si>
+    <t>DEFLECTHARM/DeflectHarm</t>
+  </si>
+  <si>
+    <t>EYEOFLIGHTANDDARKNESS/EyeofLightandDarkness</t>
+  </si>
+  <si>
+    <t>DAMPENLIGHT/DampenLight</t>
+  </si>
+  <si>
+    <t>CONTROLSKIN/ControlSkin</t>
+  </si>
+  <si>
+    <t>CREATEFETCHSTICK/CreateFetchStick</t>
+  </si>
+  <si>
+    <t>WARDING/Warding</t>
+  </si>
+  <si>
+    <t>RESURRECTION/Resurrection</t>
+  </si>
+  <si>
+    <t>PRINN'SCRUXANSATA/Prinn'sCruxAnsata</t>
+  </si>
+  <si>
+    <t>ELDERSIGN/ElderSign</t>
+  </si>
+  <si>
+    <t>POSEMUNDANE/PoseMundane</t>
+  </si>
+  <si>
+    <t>MASK/PoseMundane</t>
+  </si>
+  <si>
+    <t>WAVEOFOBLIVION/WaveofOblivion</t>
+  </si>
+  <si>
+    <t>COMMANDGHOST/CommandGhost</t>
+  </si>
+  <si>
+    <t>火焰斗篷术</t>
+  </si>
+  <si>
+    <t>精神震爆术</t>
+  </si>
+  <si>
+    <t>未来观测术</t>
+  </si>
+  <si>
+    <t>无瑕投掷法</t>
+  </si>
+  <si>
+    <t>彼端之旅</t>
+  </si>
+  <si>
+    <t>不可名状的诺言</t>
+  </si>
+  <si>
+    <t>邪眼守卫术</t>
+  </si>
+  <si>
+    <t>莫特兰玻璃幻术</t>
+  </si>
+  <si>
+    <t>时空门观察术</t>
+  </si>
+  <si>
+    <t>时空门创造术</t>
+  </si>
+  <si>
+    <t>时空门搜寻术</t>
+  </si>
+  <si>
+    <t>致病术</t>
+  </si>
+  <si>
+    <t>灵体剃刀术</t>
+  </si>
+  <si>
+    <t>CLOAKOFFIRE/CloakofFire</t>
+  </si>
+  <si>
+    <t>MINDBLAST/Mindblast</t>
+  </si>
+  <si>
+    <t>LOOKTOTHEFUTURE/LooktotheFuture</t>
+  </si>
+  <si>
+    <t>IMPECCABLETHROW/ImpeccableThrow</t>
+  </si>
+  <si>
+    <t>JOURNEYTOTHEOTHERSIDE/JourneytotheOtherSide</t>
+  </si>
+  <si>
+    <t>UNSPEAKABLEPROMISE/UnspeakablePromise</t>
+  </si>
+  <si>
+    <t>SPECTRALRAZOR/SoectralRazor</t>
+  </si>
+  <si>
+    <t>WARDINGTHEEYE/WardingtheEye</t>
+  </si>
+  <si>
+    <t>CONJUREGLASSOFMOTLAN/ConjureGlassofMortlan</t>
+  </si>
+  <si>
+    <t>VIEWGATE/ViewGate</t>
+  </si>
+  <si>
+    <t>CREATEGATE/CreateGate</t>
+  </si>
+  <si>
+    <t>FINDGATE/FindGate</t>
+  </si>
+  <si>
+    <t>CAUSEDISEASE/CauseDisease</t>
+  </si>
+  <si>
+    <t>梦境幻象术</t>
+  </si>
+  <si>
+    <t>入梦之药酿造术</t>
+  </si>
+  <si>
+    <t>梦想家诱捕术</t>
+  </si>
+  <si>
+    <t>梦境发送术</t>
+  </si>
+  <si>
+    <t>犹格-索托斯之拳</t>
+  </si>
+  <si>
+    <t>拉神之声</t>
+  </si>
+  <si>
+    <t>伸触术</t>
+  </si>
+  <si>
+    <t>DREAMVISION/DreamVision</t>
+  </si>
+  <si>
+    <t>BREWDREAMDRUG/BrewDreamDrug</t>
+  </si>
+  <si>
+    <t>SNAREDREAMER/SnareDreamer</t>
+  </si>
+  <si>
+    <t>SENDDREAM/SendDream</t>
+  </si>
+  <si>
+    <t>FISTOFYOG-SOTHOTH/FistofYog-Sothoth</t>
+  </si>
+  <si>
+    <t>VOICEOFRA/Voiceovers</t>
+  </si>
+  <si>
+    <t>REACH/Reach</t>
+  </si>
+  <si>
+    <t>SUMMONTHRALLOFCHAUGNARFAUGN/肖格纳尔·方之奴仆召唤术/SummonThrallofChaugnarFaugn</t>
+  </si>
+  <si>
+    <t>SUMMONTHRALLOFCHAUGNARFAUGN/SummonThrallofChaugnarFaugn</t>
+  </si>
+  <si>
+    <t>肖格纳尔·方之奴仆召唤术</t>
+  </si>
+  <si>
+    <t>Thralls are creatures of their creator, and only Chaugnar Faugn can bind or command them, but anyone can summon them. For each cast, 1D6+1 thralls appear, each costing the caster 1D2 magic points and 0/1D2 Sanity points. Thralls can be summoned only in an underground room or chamber without windows or other close connection to the surface. The summoner squats naked upon the dirt or floor, concentrates on an image of Chaugnar Faugn, and chants and drums until self-entranced. In the caster's mind, Chaugnar Faugn may deign to appear. If it does, the vision of it speaks and roars, "To my greater glory!"</t>
+  </si>
+  <si>
+    <t>SEEKHEART/SeekHeart</t>
+  </si>
+  <si>
+    <t>Quickens and implants the will within a corpse to pursue and acquire a fresh heart to replace the one that has been taken from it. A cast of the spell costs six Sanity points and 8 magic points. The caster must be within a hundred yards of the corpse, and must be able to see the corpse to activate it. When the spell is cast, the corpse searches for the first human target it can find. It attacks, striving to rip open the victim's belly and reach up and scoop out the victim's living heart. Insertion of the living heart within the attacker fulfills the seeking corpse, which enjoys a few fleeting game rounds of ecstasy. Shortly thereafter, the seeker collapses and begins to decay. It has been drawing upon latent energies in existing cells and muscles; once those energies have been drained, dissolution of the corpse is speedy. The effect of the spell lasts for the corpse's former STR plus CON plus POW, in minutes. If by that amount of time the corpse has not taken a new heart, it emits profound lamentations, falls to earth, and putrefies. Seek Heart can be cast only upon a corpse, and then only once. Each cast of the spell requires a relatively fresh corpse, one without significant putrefaction. The blood of the corpse must be drained, and the corpse's heart somehow removed. Preparation of the corpse and the casting of the spell take 1D3 hours.</t>
+  </si>
+  <si>
+    <t>CAGEOFKIND/CageofKind/BindLoup-Garou</t>
+  </si>
+  <si>
+    <t>Removes a werecreature's desire to control his or her shape-changing, quickly condemning him or her to the life of whatever animal the character's animal alternate is. Bind Loup-Garou needs 14 magic points per targeted loup-garou. It consumes 2D4 Sanity points per ceremony, no matter how many loups-garous are involved. A loup-garou so bound sheds its human side in a number of game days equal to its POW. Once the spell is cast, the target loup-garou steadily loses his or her ability to choose when to shape-change. More and more he or she becomes the animal alternate when primal emotions such as rage, fear, lust, or hunger become strong. The shape-change is more and more triggered, and not a choice. The effect strengthens over time. After 1/2 POW days, the target spends half its time in its animal form. After POW days, the human side is utterly unattractive and tedious. The loup-garou then lives out the remainder of its life as an animal in the wild. To perform this spell, the caster needs a bowl of solid silver or gold. The bowl must be inscribed with the incantations of the spell on its inner surface. The caster must also carve a circular talisman into the surface of the area where the spell is to be cast. Six candles are placed and lit clockwise around this talisman. Once the candles are lit, the caster may not leave the circle, or he or she must repeat the ceremony from the beginning. At least six drops of uncoagulated human blood must be added to the bowl. To target an individual, place some of his or her body hair, fingernail clippings, personal possessions, etc., in the bowl. More than one person may be targeted at a time. Incantations must be chanted without interruption for an hour. If all goes well, the bowl briefly glows and the spell begins its work. After the spell is cast, the targeted loup-garou experiences growing fears and desires based on the need of its animal side. For instance, if the loup-garou is half mountain lion, then while on the human side the loup-garou becomes increasingly aloof, predatory, and territorial with rivals. The affected loupgarou loses no Sanity unless it understands what has happened to it; then the Sanity loss is 1D3+1 SAN per day, until POW days have passed. Then it loses all remaining SAN and as a human is permanently insane.</t>
+  </si>
+  <si>
+    <t>Causes one or several victims to die horribly. This spell takes 1 combat round, 3 magic points, and 1D8 Sanity points to cast. When formed correctly, a dull red symbol glows in the air as the caster's finger describes it. The sign's malevolent effects manifest the round after its creation. Once formed, the sign must be maintained by concentration, and the expenditure of 3 more magic points each additional round. All those within 10 yards of the sign lose 1D3 hit points per round as their bodies quake and spasm, and their internal organs and blood vessels convulse. Those further than 10 yards but nearer than 30 yards lose one hit point each round. Those further than 30 yards take no damage. It is possible to escape the sign's effect by crawling behind a wall or other opaque barrier. The caster must stand next to the sign and concentrate. The caster loses 1 hit point each round because of proximity.</t>
+  </si>
+  <si>
+    <t>REDSIGNOFSHUDDEM'ELL/RedSignofShuddeM'ell</t>
+  </si>
+  <si>
+    <t>修德梅尔赤印术</t>
+  </si>
+  <si>
+    <t>The lamp of Alhazred was unusual in its appearance. It was meant for burning oil, and seemed to be of gold. It had the shape of a small oblong pot, with a handle curved up from one side, and a spout for wick and flame on the other. Many curious drawings decorated it, together with letters and pictures arranged into words in a language unfamiliar.—August Derleth and H. P. Lovecraft, "The Lamp of Alhazred." An enchantment. When lit, this lamp gives forth vapors that sends the minds of those who inhale the vapors into ecstasies of vision. These revelations are of the strange and weird landscapes of Mythos places and dimensions, and the ways of the entities there. If this lamp was actually used by alHazred, the author of the Al Azif, some of the breadth of his knowledge would be explained.</t>
+  </si>
+  <si>
+    <t>LAMPOFALHAZRED/LampofAlhazred</t>
+  </si>
+  <si>
+    <t>阿尔哈兹莱德的油灯</t>
+  </si>
+  <si>
+    <t>非官方英释义</t>
+  </si>
+  <si>
+    <t>HEAL/Heal</t>
+  </si>
+  <si>
+    <t>Maximizes the healing rate possible: with it the natural rate is 3 hit points per week, with First Aid it can be 6 hit points the first week, and with Medicine it can be 9 hit points the first week. The spell costs 3 magic points and no Sanity points. It takes 25 game rounds to cast. The recipient must be touched by the caster or the spell cannot take effect, and the spell must be reapplied each week to have effect for that week.</t>
+  </si>
+  <si>
+    <t>コスト：3MP</t>
+  </si>
+  <si>
+    <t>必要ラウンド：25ラウンド</t>
+  </si>
+  <si>
+    <t>対象の自然治癒速度を向上させる。</t>
+  </si>
+  <si>
+    <t>非官方英+简短日释义</t>
+  </si>
+  <si>
+    <t>COMMANDSHARK/CommandShark</t>
+  </si>
+  <si>
+    <t>COMMANDPORPOISE/CommandPorpoise</t>
+  </si>
+  <si>
+    <t>For committing a human sacrifice to the gods of the sea. The spells originated in the South Pacific. Each casting costs 1 magic point; for each additional point, the chance of successfully bringing the creature rises by ten percentiles. The spell must be cast over salt water. To bring a shark, splash blood into the sea; for a porpoise, drop in small live fish. The creature follows the shouted commands of the caster. With a successful Luck roll, a second shark or porpoise accompanies the one called for, but the second one is not subject to magical control.</t>
+  </si>
+  <si>
+    <t>看左侧</t>
+  </si>
+  <si>
+    <t>[It was] a nearly black, redstriated polyhedron with many irregular flat surfaces; either a very remarkable crystal of some sort, or an artificial object of carved and highly polished mineral matter. It did not touch the bottom of the box, but was held suspended by means of a metal band around its center, with seven queerly-designed supports extending horizontally to angles of the box's inner wall near the top .... exposed, [Blake] could scarcely tear his eyes from it, and as he looked at its glistening surfaces he almost fancied it was transparent, with half-formed worlds of wonder within. — H. P. Lovecraft, "The Haunter of the Dark."</t>
+  </si>
+  <si>
+    <t>An enchantment. In the story, Robert Blake finds a peculiar metal box in which is mounted a stone about four inches thick. It rewards or damns those who look into it with visions of other worlds and dimensions—thus the stone shines with the interior light of things not of our world. The notes of a previous investigator refer to it as the Shining Trapezohedron, the correct description of the crystalline form. When the box is closed, a hideous avatar of Nyarlathotep comes, but one which either will not or dares not enter even the pale circles of light cast by street lamps. The stone exercises great command over human psyches. Getting rid of it proves too much for poor Blake, who perishes when the electric lights of Providence fail during a thunderstorm and the avatar emerges.</t>
+  </si>
+  <si>
+    <t>SHININGTRAPEZOHEDRON/ShiningTrapezohedron</t>
+  </si>
+  <si>
+    <t>闪耀的偏方三八面体</t>
+  </si>
+  <si>
+    <t>Dreamlands. This spell can be cast only by the River God Oukranos, after the target has earned his enmity. A devastating thirst plagues the target. In the Dreamlands, this curse takes effect every 1D3 days and lasts for 1D3 hours. In the Waking World, the afflicted cannot drink enough water ever to slake thirst. The target loses 1 CON daily, until death occurs or until he or she returns to the Dreamlands and fulfills some obligation. Once the River God is satisfied, the cursed recover 1 point of lost CON per week.</t>
+  </si>
+  <si>
+    <t>RIVERGODISCURSE/RiverGodCurse</t>
+  </si>
+  <si>
+    <t>河神的诅咒</t>
+  </si>
+  <si>
+    <t>The spell must be chanted together by a large group of people, each of whom must know the spell, though not necessarily the intent. Each contributes 1 magic point to the summoning. The chant leader loses 1D6 magic points and 1D3 Sanity points. The chant lasts hours, until the dhole appears. The chant leader can attempt to overcome the magic points of the summoned dhole with his own and, if successful, he commands the dhole when it appears. It remains controlled until the caster frees it, either voluntarily or by losing his concentration, falling asleep, etc., and at that point it disappears. If the command roll fails, the dhole attempts to eat everyone, then disappears. At present this spell does not exist in any earthly writing.</t>
+  </si>
+  <si>
+    <t>COMMANDDHOLE/CommandDhole</t>
+  </si>
+  <si>
+    <t>巨噬蠕虫号令法</t>
+  </si>
+  <si>
+    <t>Mi-go. This spell subtly warps space, creating a sink from which photons will not emerge. The mi-go must spend one magic point for every cubic yard of blackness desired. No light can escape the affected area, making useful visual protection for these sometimes fragile aliens. Depending on how the spell is prepared, the darkness may be like a sheet or a spherical volume.</t>
+  </si>
+  <si>
+    <t>VOIDLIGHT/VoidLight</t>
+  </si>
+  <si>
+    <t>CALLPOWEROFNYAMBE/PowerofNyambe</t>
+  </si>
+  <si>
+    <t>Grants the caster additional magic points perhaps useful in an emergency. The caster performs a ritual which requires many components of African tribal magic, and sacrifices 1 point of POW but no Sanity points. In return, the caster receives 2D6 extra magic points usable for any purpose. These points do not regenerate, and the POW does not return.</t>
+  </si>
+  <si>
+    <t>GLASSFROMLENG/GlassFromLeng</t>
+  </si>
+  <si>
+    <t>A great round window of a most curious clouded glass, of which [Wilbur] said only that it was a work of great antiquity, which he had discovered and acquired in the course of his travels in Asia. He referred to it at one time as "the glass from Leng " and at another as "possibly Hyadean in origin ", neither of which enlightened me in the slightest. August Derleth and H. P. Lovecraft, "The Gable Window." An enchantment. This magical glass allows the possessor to see in it random visions of other places. The previous owner would inscribe a pentagram in red chalk (presumably for protection), recite a brief verse, and then the glass would show a scene of beings from the Cthulhu Mythos. Unfortunately, such beings could also see through the glass to the user's side.</t>
+  </si>
+  <si>
+    <t>SENDDREAMING/SendDreaming</t>
+  </si>
+  <si>
+    <t>Can be cast only during the dark of the moon, and only by one who possesses Alcheringa Dream Lore. The caster sacrifices 1 POW into a fire. The fire burns yellow, then white, then blue as the night wears on. The caster then entrances himself and sends Dreamtime visions to the sleeping target, plunging that person's imagination into the Dreamtime without preparation or knowledge. If the dream is horrifying, the target can wake with a successful INT x 1 roll as it begins, or by a successful POW x 1 roll at the end of each hour. A dream costs caster and target alike 1D6 Sanity points, and lasts for six hours. Once such a dream is underway, the target cannot be awakened by someone else. The same dream might be sent to two targets in one night for twice the cost of one.</t>
+  </si>
+  <si>
+    <t>PLUTONIANDRUG/PlutonianDrug</t>
+  </si>
+  <si>
+    <t>"I have here five pellets of the drug Liao. It was used by the Chinese philosopher Lao Tze, and while under its influence he visioned Too. Too is the most mysterious force in the world; it surrounds and pervades all things " — Frank Belknap Long, "The Hounds of Tindalos." An enchantment. This drug has the ability to send the user's mind back in time. In the story, it sometimes sent back users so far that they encountered the hounds of Tindalos, entities capable of traveling up and down time via its "corners." The hounds are attracted by such intrusion and soon appear to devour the interloper. The drug can appear in liquid or tablet form.</t>
+  </si>
+  <si>
+    <t>MESMERIZE/Mesmerize</t>
+  </si>
+  <si>
+    <t>The user can command any being with human blood in its veins. The caster loses 1D6 Sanity points, but no magic points, and must have at least 50% Occult and 50% Cthulhu Mythos. The spell takes a DEX rank to cast. Match caster and target POW on the Resistance Table. If successful, the target stops and accepts commands spoken by the caster. The target must be close enough to see the caster's eyes, which seem to glow while the spell operates. Mesmerization lasts for 5 rounds for each point of INT the caster possesses. If the INT of the target is higher than that of the caster, a successful POW vs. POW Resistance Table roll must be made every 10 rounds, or the spell is broken. A single target is affected. The victim's physical action skills are halved. The victim carries out all that is commanded by the caster, even to self-destruction. The spell also works against modern serpent folk and deep ones who have interbred with humans, but doesn't work on nonhuman entities such as shantaks or dimensional shamblers.</t>
+  </si>
+  <si>
+    <t>Mi-Go. By introducing ultrahigh and ultralow frequency tones into its buzzing, the mi-go can put one or many humans listening to it into a trance state. An investigator within forty feet of a buzzing mi-go must receive a successful Resistance Table roll of POW vs. POW or become incapable of action. Thoughts and commands can then be given to a specific human via the Contact Human spell.</t>
+  </si>
+  <si>
+    <t>MI-GOHYPNOSIS/Mi-GoHypnosis</t>
+  </si>
+  <si>
+    <t>https://github.com/errrr-er/alll/issues</t>
+  </si>
+  <si>
+    <t>https://box.n3ko.cc/_/no_reply31cat</t>
+  </si>
+  <si>
+    <t>提问箱</t>
+  </si>
+  <si>
+    <t>Github - Issues</t>
+  </si>
+  <si>
+    <r>
+      <t>汇报错误等请使用以下渠道、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一切以github里最新版本为准</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">目录  旧版手册呪文(中日英三语) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ver1.0.0</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1438,8 +2127,39 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1466,12 +2186,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1485,6 +2199,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1504,7 +2230,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1515,14 +2241,43 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1809,12 +2564,1896 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52749F28-BD4A-42E3-8FF0-74AD0ADF569F}">
+  <dimension ref="A1:C171"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C172" sqref="C172"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="2.41796875" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.1015625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="92.20703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7890625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="22" t="s">
+        <v>672</v>
+      </c>
+      <c r="C1" s="22"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>671</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="20" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="22" t="s">
+        <v>673</v>
+      </c>
+      <c r="C5" s="22"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="B91" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B92" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C92" s="20" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B93" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C93" s="20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B94" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C94" s="20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="B95" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C95" s="20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B96" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96" s="20" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B97" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B98" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C98" s="20" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B99" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C99" s="20" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="B100" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C100" s="20" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B101" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C101" s="20" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B102" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C102" s="20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B103" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C103" s="20" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B104" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C104" s="20" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="B105" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C105" s="20" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="B106" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C106" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="B107" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C107" s="20" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B108" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" s="20" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B109" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C109" s="20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B110" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C110" s="20" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="B111" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="C111" s="20" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B112" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C112" s="20" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B113" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C113" s="20" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B114" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C114" s="20" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B115" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C115" s="20" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B116" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C116" s="20" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B117" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C117" s="20" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B118" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C118" s="20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B119" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C119" s="20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B120" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" s="20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="B121" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C121" s="20" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B122" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C122" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B123" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C123" s="20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B124" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C124" s="20" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B125" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C125" s="20" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B126" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C126" s="20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B127" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C127" s="20" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B128" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C128" s="20" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B129" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C129" s="20" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="B130" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C130" s="20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B131" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C131" s="20" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B132" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C132" s="20" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B133" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C133" s="20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B134" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C134" s="20" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B135" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C135" s="20" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="B136" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B137" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C137" s="20" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B138" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C138" s="20" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B139" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C139" s="20" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B140" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C140" s="20" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B141" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C141" s="20" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B142" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C142" s="20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B143" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C143" s="20" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B144" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C144" s="20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B145" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C145" s="20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B146" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C146" s="20" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B147" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C147" s="20" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B148" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C148" s="20" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B149" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C149" s="20" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B150" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C150" s="20" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B151" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C151" s="20" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B152" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C152" s="20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B153" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C153" s="20" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B154" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C154" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B155" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C155" s="20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B156" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C156" s="20" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="B157" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C157" s="20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B158" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C158" s="20" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="B159" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C159" s="20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B160" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C160" s="20" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="B161" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C161" s="20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B162" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C162" s="20" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B163" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C163" s="20" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B164" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C164" s="20" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B165" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C165" s="20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="B166" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C166" s="20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B167" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C167" s="20" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B168" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C168" s="20" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B169" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C169" s="20" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B170" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C170" s="20" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B171" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C171" s="20" t="s">
+        <v>272</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{15855C79-66F2-4EE4-A52D-3F2CEA5B34FE}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{46907506-540E-4EB0-9FE1-994021736913}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1832,7 +4471,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1852,7 +4491,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C2" s="5"/>
     </row>
@@ -1861,7 +4500,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1869,31 +4508,31 @@
         <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>176</v>
+      <c r="B5" s="9" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>177</v>
+      <c r="B6" s="9" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>247</v>
+      <c r="B7" s="14" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1901,7 +4540,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1909,7 +4548,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1917,7 +4556,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1925,7 +4564,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1933,31 +4572,31 @@
         <v>15</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>183</v>
+      <c r="B13" s="9" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>184</v>
+      <c r="B14" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>343</v>
+      <c r="B15" s="15" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1965,15 +4604,15 @@
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>186</v>
+      <c r="B17" s="9" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1981,31 +4620,31 @@
         <v>21</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>188</v>
+      <c r="B19" s="9" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>189</v>
+      <c r="B20" s="9" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>248</v>
+      <c r="B21" s="9" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2013,7 +4652,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2021,31 +4660,31 @@
         <v>26</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>249</v>
+      <c r="B24" s="14" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>250</v>
+      <c r="B25" s="14" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>193</v>
+      <c r="B26" s="9" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2053,39 +4692,39 @@
         <v>30</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>195</v>
+      <c r="B28" s="8" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>196</v>
+      <c r="B29" s="9" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>197</v>
+      <c r="B30" s="9" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>198</v>
+      <c r="B31" s="9" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2093,23 +4732,23 @@
         <v>35</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>200</v>
+      <c r="B33" s="9" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>201</v>
+      <c r="B34" s="9" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2117,87 +4756,87 @@
         <v>38</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>345</v>
+      <c r="B36" s="9" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="10" t="s">
-        <v>203</v>
+      <c r="B37" s="9" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>204</v>
+      <c r="B38" s="9" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>205</v>
+      <c r="B39" s="9" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>206</v>
+      <c r="B40" s="9" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>347</v>
+      <c r="B41" s="9" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>207</v>
+      <c r="B42" s="9" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>208</v>
+      <c r="B43" s="9" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>348</v>
+      <c r="B44" s="15" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>349</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>350</v>
+        <v>332</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2205,47 +4844,47 @@
         <v>48</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>211</v>
+      <c r="B48" s="9" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="10" t="s">
-        <v>212</v>
+      <c r="B49" s="9" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="10" t="s">
-        <v>213</v>
+      <c r="B50" s="9" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="10" t="s">
-        <v>214</v>
+      <c r="B51" s="9" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2253,7 +4892,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2261,31 +4900,31 @@
         <v>54</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="10" t="s">
-        <v>217</v>
+      <c r="B54" s="9" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="6" t="s">
-        <v>251</v>
+      <c r="B55" s="14" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>57</v>
       </c>
-      <c r="B56" s="10" t="s">
-        <v>218</v>
+      <c r="B56" s="9" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2293,879 +4932,879 @@
         <v>58</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>59</v>
       </c>
-      <c r="B58" s="10" t="s">
-        <v>220</v>
+      <c r="B58" s="9" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>60</v>
       </c>
-      <c r="B59" s="7" t="s">
-        <v>61</v>
+      <c r="B59" s="14" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>221</v>
+        <v>61</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>63</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>224</v>
+        <v>62</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>222</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>223</v>
+        <v>213</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>225</v>
+        <v>63</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>226</v>
+        <v>64</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>66</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>227</v>
+        <v>65</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>228</v>
+        <v>66</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>69</v>
-      </c>
       <c r="B68" s="4" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>70</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>231</v>
+        <v>69</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>71</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>232</v>
+        <v>70</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>72</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>233</v>
+        <v>71</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>73</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>234</v>
+        <v>72</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>74</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>235</v>
+        <v>73</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>75</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>236</v>
+        <v>74</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>76</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>237</v>
+        <v>75</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>77</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>238</v>
+        <v>76</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>78</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>239</v>
+        <v>77</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>79</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>240</v>
+        <v>78</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>80</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>241</v>
+        <v>79</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>86</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>88</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>252</v>
+        <v>86</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>90</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>253</v>
+        <v>88</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>94</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>260</v>
+        <v>92</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>100</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>265</v>
+        <v>98</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>108</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>111</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>274</v>
+        <v>108</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>113</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>278</v>
+        <v>110</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>276</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>277</v>
+        <v>266</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>123</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
+      </c>
+      <c r="B122" s="14" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>126</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>289</v>
+        <v>122</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>134</v>
-      </c>
-      <c r="B133" s="9" t="s">
-        <v>304</v>
+        <v>130</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>137</v>
-      </c>
-      <c r="B136" s="9" t="s">
-        <v>307</v>
+        <v>133</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>140</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>346</v>
+        <v>136</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>141</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
+      </c>
+      <c r="B140" s="14" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>144</v>
-      </c>
-      <c r="B142" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
+      </c>
+      <c r="B142" s="14" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>148</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>149</v>
+        <v>142</v>
+      </c>
+      <c r="B145" s="14" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>160</v>
-      </c>
-      <c r="B156" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
+      </c>
+      <c r="B156" s="14" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>167</v>
-      </c>
-      <c r="B162" s="9" t="s">
-        <v>300</v>
+        <v>159</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>168</v>
-      </c>
-      <c r="B163" s="9" t="s">
-        <v>301</v>
+        <v>160</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>169</v>
-      </c>
-      <c r="B164" s="7" t="s">
-        <v>170</v>
+        <v>161</v>
+      </c>
+      <c r="B164" s="14" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>171</v>
-      </c>
-      <c r="B165" s="9" t="s">
-        <v>302</v>
+        <v>162</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>172</v>
-      </c>
-      <c r="B166" s="9" t="s">
-        <v>303</v>
+        <v>163</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -3174,554 +5813,61 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB29E7B-1F47-4182-A380-70416D0F951F}">
-  <dimension ref="A1:X20"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2888357-E040-45AE-90AA-C2F78C3ED7B6}">
+  <dimension ref="B2:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="22" width="9.15625" style="12"/>
-    <col min="25" max="16384" width="9.15625" style="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="12" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="12" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="C3" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="14.7">
-      <c r="B4" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="12" t="s">
-        <v>439</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>443</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>447</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="14.7">
-      <c r="B5" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="12" t="s">
-        <v>440</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="14.7">
-      <c r="B6" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="12" t="s">
-        <v>441</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="14.7">
-      <c r="B7" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="12" t="s">
-        <v>442</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>446</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="B9" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="N9" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="P9" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q9" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="R9" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="S9" s="12" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="B10" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>403</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>409</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>419</v>
-      </c>
-      <c r="O10" s="12" t="s">
-        <v>422</v>
-      </c>
-      <c r="P10" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="Q10" s="12" t="s">
-        <v>429</v>
-      </c>
-      <c r="R10" s="12" t="s">
-        <v>432</v>
-      </c>
-      <c r="S10" s="12" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="B11" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>413</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="P11" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q11" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="R11" s="12" t="s">
-        <v>433</v>
-      </c>
-      <c r="S11" s="12" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="B12" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>404</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>407</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>410</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>417</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>420</v>
-      </c>
-      <c r="O12" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="P12" s="12" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q12" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="R12" s="12" t="s">
-        <v>434</v>
-      </c>
-      <c r="S12" s="12" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="B13" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>411</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>415</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>421</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>425</v>
-      </c>
-      <c r="P13" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="Q13" s="12" t="s">
-        <v>431</v>
-      </c>
-      <c r="R13" s="12" t="s">
-        <v>435</v>
-      </c>
-      <c r="S13" s="12" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="B15" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="N15" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="O15" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="P15" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q15" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="R15" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="S15" s="12" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="B16" s="12" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="12" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="12" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="12" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="12" t="s">
-        <v>328</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2888357-E040-45AE-90AA-C2F78C3ED7B6}">
-  <dimension ref="B2:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="8"/>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="7"/>
       <c r="C4" t="s">
-        <v>333</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="9"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="8"/>
       <c r="C6" t="s">
-        <v>341</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="10"/>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="9"/>
       <c r="C8" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="11"/>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="10"/>
       <c r="C10" t="s">
-        <v>344</v>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="14"/>
+      <c r="C12" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="15"/>
+      <c r="C14" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" s="6"/>
+      <c r="C16" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -3730,1033 +5876,2149 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52749F28-BD4A-42E3-8FF0-74AD0ADF569F}">
-  <dimension ref="A1:B203"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F96A3617-A054-470C-8EEA-BD111A2FEE05}">
+  <dimension ref="A1:X20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15.3" customHeight="1"/>
+  <cols>
+    <col min="1" max="22" width="9.15625" style="11"/>
+    <col min="23" max="24" width="9.15625" style="12"/>
+    <col min="25" max="16384" width="9.15625" style="11"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="1" spans="1:24" ht="15.3" customHeight="1">
+      <c r="A1" s="11" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="15.3" customHeight="1">
+      <c r="A2" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="V2" s="12"/>
+      <c r="X2" s="11"/>
+    </row>
+    <row r="3" spans="1:24" ht="15.3" customHeight="1">
+      <c r="A3" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="O3" t="s">
+        <v>120</v>
+      </c>
+      <c r="P3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R3" t="s">
+        <v>153</v>
+      </c>
+      <c r="S3" t="s">
+        <v>142</v>
+      </c>
+      <c r="T3" t="s">
+        <v>139</v>
+      </c>
+      <c r="U3" t="s">
+        <v>137</v>
+      </c>
+      <c r="V3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="15.3" customHeight="1">
+      <c r="B4" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="I4" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="V4" s="12"/>
+    </row>
+    <row r="5" spans="1:24" ht="15.3" customHeight="1">
+      <c r="B5" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="I5" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="V5" s="12"/>
+    </row>
+    <row r="6" spans="1:24" ht="15.3" customHeight="1">
+      <c r="B6" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="I6" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="V6" s="12"/>
+    </row>
+    <row r="7" spans="1:24" ht="15.3" customHeight="1">
+      <c r="B7" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="V7" s="12"/>
+    </row>
+    <row r="8" spans="1:24" ht="15.3" customHeight="1">
+      <c r="V8" s="12"/>
+    </row>
+    <row r="9" spans="1:24" ht="15.3" customHeight="1">
+      <c r="B9" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>650</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="V9" s="12"/>
+    </row>
+    <row r="10" spans="1:24" ht="15.3" customHeight="1">
+      <c r="B10" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="V10" s="12"/>
+    </row>
+    <row r="11" spans="1:24" ht="15.3" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="V11" s="12"/>
+    </row>
+    <row r="12" spans="1:24" ht="15.3" customHeight="1">
+      <c r="B12" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="V12" s="12"/>
+    </row>
+    <row r="13" spans="1:24" ht="15.3" customHeight="1">
+      <c r="B13" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="V13" s="12"/>
+    </row>
+    <row r="14" spans="1:24" ht="15.3" customHeight="1">
+      <c r="V14" s="12"/>
+    </row>
+    <row r="15" spans="1:24" ht="15.3" customHeight="1">
+      <c r="B15" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>620</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>625</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>628</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>631</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>634</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>640</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>641</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>646</v>
+      </c>
+      <c r="M15" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="N15" s="17" t="s">
+        <v>652</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>656</v>
+      </c>
+      <c r="Q15" s="14" t="s">
+        <v>658</v>
+      </c>
+      <c r="R15" s="14" t="s">
+        <v>660</v>
+      </c>
+      <c r="S15" s="14" t="s">
+        <v>662</v>
+      </c>
+      <c r="T15" s="14" t="s">
+        <v>664</v>
+      </c>
+      <c r="U15" s="14" t="s">
+        <v>667</v>
+      </c>
+      <c r="V15" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="15.3" customHeight="1">
+      <c r="B16" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>642</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>643</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>644</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="P16" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="Q16" s="11" t="s">
+        <v>659</v>
+      </c>
+      <c r="R16" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="S16" s="11" t="s">
+        <v>663</v>
+      </c>
+      <c r="T16" s="11" t="s">
+        <v>665</v>
+      </c>
+      <c r="U16" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="V16" s="12"/>
+    </row>
+    <row r="17" spans="2:24" ht="15.3" customHeight="1">
+      <c r="B17" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="L17" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="V17" s="12"/>
+    </row>
+    <row r="18" spans="2:24" ht="15.3" customHeight="1">
+      <c r="B18" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="V18" s="12"/>
+    </row>
+    <row r="19" spans="2:24" ht="15.3" customHeight="1">
+      <c r="B19" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="V19" s="12"/>
+      <c r="X19" s="11"/>
+    </row>
+    <row r="20" spans="2:24" ht="15.3" customHeight="1">
+      <c r="B20" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="V20" s="12"/>
+      <c r="X20" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB29E7B-1F47-4182-A380-70416D0F951F}">
+  <dimension ref="A1:Z20"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="Y22" sqref="Y22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15.3" customHeight="1"/>
+  <cols>
+    <col min="1" max="22" width="9.15625" style="11"/>
+    <col min="23" max="24" width="9.15625" style="12"/>
+    <col min="25" max="16384" width="9.15625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="15.3" customHeight="1">
+      <c r="A1" s="11" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="15.3" customHeight="1">
+      <c r="A2" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="V2" s="12"/>
+      <c r="X2" s="11"/>
+    </row>
+    <row r="3" spans="1:26" ht="15.3" customHeight="1">
+      <c r="A3" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y3" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z3" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="15.3" customHeight="1">
+      <c r="B4" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="P4" s="11" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>328</v>
-      </c>
-      <c r="B3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>327</v>
-      </c>
-      <c r="B4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1">
-      <c r="A178" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1">
-      <c r="A179" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1">
-      <c r="A180" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1">
-      <c r="A182" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1">
-      <c r="A183" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1">
-      <c r="A184" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1">
-      <c r="A185" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1">
-      <c r="A186" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1">
-      <c r="A187" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1">
-      <c r="A188" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1">
-      <c r="A189" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1">
-      <c r="A190" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1">
-      <c r="A191" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1">
-      <c r="A192" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1">
-      <c r="A193" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1">
-      <c r="A194" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
-      <c r="A195" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1">
-      <c r="A196" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
-      <c r="A197" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1">
-      <c r="A198" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1">
-      <c r="A199" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1">
-      <c r="A200" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1">
-      <c r="A201" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1">
-      <c r="A202" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1">
-      <c r="A203" t="s">
-        <v>327</v>
-      </c>
+      <c r="Q4" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="V4" s="12"/>
+      <c r="W4" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15.3" customHeight="1">
+      <c r="B5" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="V5" s="12"/>
+      <c r="W5" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="15.3" customHeight="1">
+      <c r="B6" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="V6" s="12"/>
+      <c r="W6" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="15.3" customHeight="1">
+      <c r="B7" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="V7" s="12"/>
+      <c r="W7" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="15.3" customHeight="1">
+      <c r="Q8" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="V8" s="12"/>
+      <c r="W8" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="X8" s="11"/>
+    </row>
+    <row r="9" spans="1:26" ht="15.3" customHeight="1">
+      <c r="B9" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="U9" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="V9" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="W9" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="X9" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y9" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="Z9" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="15.3" customHeight="1">
+      <c r="B10" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="S10" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="T10" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="U10" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="V10" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="W10" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="X10" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y10" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="Z10" s="11" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15.3" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q11" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="R11" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="S11" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="T11" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="U11" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="V11" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="W11" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="X11" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y11" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="Z11" s="11" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="15.3" customHeight="1">
+      <c r="B12" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="P12" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="R12" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="S12" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="T12" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="U12" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="V12" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="W12" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="X12" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y12" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="Z12" s="11" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15.3" customHeight="1">
+      <c r="B13" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="P13" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q13" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="R13" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="S13" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="T13" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="U13" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="V13" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="W13" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="X13" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y13" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="Z13" s="11" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15.3" customHeight="1">
+      <c r="V14" s="12"/>
+      <c r="X14" s="11"/>
+    </row>
+    <row r="15" spans="1:26" ht="15.3" customHeight="1">
+      <c r="B15" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q15" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="R15" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="S15" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="T15" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="U15" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="V15" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="W15" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="X15" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y15" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="Z15" s="11" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15.3" customHeight="1">
+      <c r="B16" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="V16" s="12"/>
+      <c r="X16" s="11"/>
+    </row>
+    <row r="17" spans="2:24" ht="15.3" customHeight="1">
+      <c r="B17" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="V17" s="12"/>
+      <c r="X17" s="11"/>
+    </row>
+    <row r="18" spans="2:24" ht="15.3" customHeight="1">
+      <c r="B18" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="V18" s="12"/>
+      <c r="X18" s="11"/>
+    </row>
+    <row r="19" spans="2:24" ht="15.3" customHeight="1">
+      <c r="B19" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="V19" s="12"/>
+      <c r="X19" s="11"/>
+    </row>
+    <row r="20" spans="2:24" ht="15.3" customHeight="1">
+      <c r="B20" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="V20" s="12"/>
+      <c r="X20" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD23C35-6CB4-4BD3-8AEB-D709EB4CE400}">
+  <dimension ref="A1:Y20"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15.3" customHeight="1"/>
+  <cols>
+    <col min="1" max="22" width="9.15625" style="11"/>
+    <col min="23" max="24" width="9.15625" style="12"/>
+    <col min="25" max="16384" width="9.15625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="15.3" customHeight="1">
+      <c r="A1" s="11" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="15.3" customHeight="1">
+      <c r="A2" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="V2" s="12"/>
+      <c r="X2" s="11"/>
+    </row>
+    <row r="3" spans="1:25" ht="15.3" customHeight="1">
+      <c r="A3" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y3" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="15.3" customHeight="1">
+      <c r="B4" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+    </row>
+    <row r="5" spans="1:25" ht="15.3" customHeight="1">
+      <c r="B5" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+    </row>
+    <row r="6" spans="1:25" ht="15.3" customHeight="1">
+      <c r="B6" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+    </row>
+    <row r="7" spans="1:25" ht="15.3" customHeight="1">
+      <c r="B7" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+    </row>
+    <row r="8" spans="1:25" ht="15.3" customHeight="1">
+      <c r="V8" s="12"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+    </row>
+    <row r="9" spans="1:25" ht="15.3" customHeight="1">
+      <c r="B9" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="U9" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="V9" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="W9" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="X9" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="Y9" s="11" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="15.3" customHeight="1">
+      <c r="B10" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="V10" s="12"/>
+      <c r="X10" s="11"/>
+    </row>
+    <row r="11" spans="1:25" ht="15.3" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="V11" s="12"/>
+      <c r="X11" s="11"/>
+    </row>
+    <row r="12" spans="1:25" ht="15.3" customHeight="1">
+      <c r="B12" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="V12" s="12"/>
+      <c r="X12" s="11"/>
+    </row>
+    <row r="13" spans="1:25" ht="15.3" customHeight="1">
+      <c r="B13" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="V13" s="12"/>
+      <c r="X13" s="11"/>
+    </row>
+    <row r="14" spans="1:25" ht="15.3" customHeight="1">
+      <c r="V14" s="12"/>
+      <c r="X14" s="11"/>
+    </row>
+    <row r="15" spans="1:25" ht="15.3" customHeight="1">
+      <c r="B15" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q15" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="R15" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="S15" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="T15" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="U15" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="V15" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="W15" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="X15" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="Y15" s="12" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="15.3" customHeight="1">
+      <c r="B16" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="V16" s="12"/>
+      <c r="X16" s="11"/>
+    </row>
+    <row r="17" spans="2:24" ht="15.3" customHeight="1">
+      <c r="B17" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="V17" s="12"/>
+      <c r="X17" s="11"/>
+    </row>
+    <row r="18" spans="2:24" ht="15.3" customHeight="1">
+      <c r="B18" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="V18" s="12"/>
+      <c r="X18" s="11"/>
+    </row>
+    <row r="19" spans="2:24" ht="15.3" customHeight="1">
+      <c r="B19" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="V19" s="12"/>
+      <c r="X19" s="11"/>
+    </row>
+    <row r="20" spans="2:24" ht="15.3" customHeight="1">
+      <c r="B20" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="V20" s="12"/>
+      <c r="X20" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB3DD89-5585-46F0-8F1A-97825E500626}">
+  <dimension ref="A1:Y20"/>
+  <sheetViews>
+    <sheetView zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15.3" customHeight="1"/>
+  <cols>
+    <col min="1" max="22" width="9.15625" style="11"/>
+    <col min="23" max="24" width="9.15625" style="12"/>
+    <col min="25" max="16384" width="9.15625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="15.3" customHeight="1">
+      <c r="A1" s="11" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="15.3" customHeight="1">
+      <c r="A2" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="V2" s="12"/>
+      <c r="X2" s="11"/>
+    </row>
+    <row r="3" spans="1:25" ht="15.3" customHeight="1">
+      <c r="A3" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="X3" s="11"/>
+    </row>
+    <row r="4" spans="1:25" ht="15.3" customHeight="1">
+      <c r="B4" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+    </row>
+    <row r="5" spans="1:25" ht="15.3" customHeight="1">
+      <c r="B5" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+    </row>
+    <row r="6" spans="1:25" ht="15.3" customHeight="1">
+      <c r="B6" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+    </row>
+    <row r="7" spans="1:25" ht="15.3" customHeight="1">
+      <c r="B7" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+    </row>
+    <row r="8" spans="1:25" ht="15.3" customHeight="1">
+      <c r="V8" s="12"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+    </row>
+    <row r="9" spans="1:25" ht="15.3" customHeight="1">
+      <c r="B9" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="U9" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="V9" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="W9" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="X9" s="11"/>
+    </row>
+    <row r="10" spans="1:25" ht="15.3" customHeight="1">
+      <c r="B10" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="V10" s="12"/>
+      <c r="X10" s="11"/>
+    </row>
+    <row r="11" spans="1:25" ht="15.3" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="V11" s="12"/>
+      <c r="X11" s="11"/>
+    </row>
+    <row r="12" spans="1:25" ht="15.3" customHeight="1">
+      <c r="B12" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="V12" s="12"/>
+      <c r="X12" s="11"/>
+    </row>
+    <row r="13" spans="1:25" ht="15.3" customHeight="1">
+      <c r="B13" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="V13" s="12"/>
+      <c r="X13" s="11"/>
+    </row>
+    <row r="14" spans="1:25" ht="15.3" customHeight="1">
+      <c r="V14" s="12"/>
+      <c r="X14" s="11"/>
+    </row>
+    <row r="15" spans="1:25" ht="15.3" customHeight="1">
+      <c r="B15" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q15" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="R15" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="S15" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="T15" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="U15" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="V15" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="W15" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="12"/>
+    </row>
+    <row r="16" spans="1:25" ht="15.3" customHeight="1">
+      <c r="B16" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="V16" s="12"/>
+      <c r="X16" s="11"/>
+    </row>
+    <row r="17" spans="2:24" ht="15.3" customHeight="1">
+      <c r="B17" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="V17" s="12"/>
+      <c r="X17" s="11"/>
+    </row>
+    <row r="18" spans="2:24" ht="15.3" customHeight="1">
+      <c r="B18" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="V18" s="12"/>
+      <c r="X18" s="11"/>
+    </row>
+    <row r="19" spans="2:24" ht="15.3" customHeight="1">
+      <c r="B19" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="V19" s="12"/>
+      <c r="X19" s="11"/>
+    </row>
+    <row r="20" spans="2:24" ht="15.3" customHeight="1">
+      <c r="B20" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="V20" s="12"/>
+      <c r="X20" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{901C7F52-414D-439D-B3EF-40928BEF37C1}">
+  <dimension ref="A1:Y20"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y24" sqref="Y24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15.3" customHeight="1"/>
+  <cols>
+    <col min="1" max="22" width="9.15625" style="11"/>
+    <col min="23" max="24" width="9.15625" style="12"/>
+    <col min="25" max="16384" width="9.15625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="15.3" customHeight="1">
+      <c r="A1" s="11" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="15.3" customHeight="1">
+      <c r="A2" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="V2" s="12"/>
+      <c r="X2" s="11"/>
+    </row>
+    <row r="3" spans="1:25" ht="15.3" customHeight="1">
+      <c r="A3" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="X3"/>
+      <c r="Y3"/>
+    </row>
+    <row r="4" spans="1:25" ht="15.3" customHeight="1">
+      <c r="B4" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+    </row>
+    <row r="5" spans="1:25" ht="15.3" customHeight="1">
+      <c r="B5" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+    </row>
+    <row r="6" spans="1:25" ht="15.3" customHeight="1">
+      <c r="B6" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+    </row>
+    <row r="7" spans="1:25" ht="15.3" customHeight="1">
+      <c r="B7" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+    </row>
+    <row r="8" spans="1:25" ht="15.3" customHeight="1">
+      <c r="V8" s="12"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+    </row>
+    <row r="9" spans="1:25" ht="15.3" customHeight="1">
+      <c r="B9" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="U9" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="V9" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="W9" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="X9" s="11"/>
+    </row>
+    <row r="10" spans="1:25" ht="15.3" customHeight="1">
+      <c r="B10" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="V10" s="12"/>
+      <c r="X10" s="11"/>
+    </row>
+    <row r="11" spans="1:25" ht="15.3" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="V11" s="12"/>
+      <c r="X11" s="11"/>
+    </row>
+    <row r="12" spans="1:25" ht="15.3" customHeight="1">
+      <c r="B12" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="V12" s="12"/>
+      <c r="X12" s="11"/>
+    </row>
+    <row r="13" spans="1:25" ht="15.3" customHeight="1">
+      <c r="B13" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="V13" s="12"/>
+      <c r="X13" s="11"/>
+    </row>
+    <row r="14" spans="1:25" ht="15.3" customHeight="1">
+      <c r="V14" s="12"/>
+      <c r="X14" s="11"/>
+    </row>
+    <row r="15" spans="1:25" ht="15.3" customHeight="1">
+      <c r="B15" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="Q15" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="R15" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="S15" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="T15" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="U15" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="V15" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="W15" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="X15" s="11"/>
+    </row>
+    <row r="16" spans="1:25" ht="15.3" customHeight="1">
+      <c r="B16" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="V16" s="12"/>
+      <c r="X16" s="11"/>
+    </row>
+    <row r="17" spans="2:24" ht="15.3" customHeight="1">
+      <c r="B17" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="V17" s="12"/>
+      <c r="X17" s="11"/>
+    </row>
+    <row r="18" spans="2:24" ht="15.3" customHeight="1">
+      <c r="B18" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="V18" s="12"/>
+      <c r="X18" s="11"/>
+    </row>
+    <row r="19" spans="2:24" ht="15.3" customHeight="1">
+      <c r="B19" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="V19" s="12"/>
+      <c r="X19" s="11"/>
+    </row>
+    <row r="20" spans="2:24" ht="15.3" customHeight="1">
+      <c r="B20" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="V20" s="12"/>
+      <c r="X20" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/call_of_cthulhu/magic/CJE/旧版手册呪文_仅名称.xlsx
+++ b/call_of_cthulhu/magic/CJE/旧版手册呪文_仅名称.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d2c6fb186291c3cd/github/alll/call_of_cthulhu/magic/CJE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="828" documentId="13_ncr:1_{E16AFC2B-E770-4477-B830-0D96E1264306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A70CC67A-C23F-4CD9-91A3-E9889503E1BC}"/>
+  <xr:revisionPtr revIDLastSave="920" documentId="13_ncr:1_{E16AFC2B-E770-4477-B830-0D96E1264306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B385123-BA59-4437-8153-C8D298B9FD76}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1770" windowWidth="12792" windowHeight="10512" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1770" windowWidth="12792" windowHeight="10512" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AZ目录" sheetId="2" r:id="rId1"/>
     <sheet name="旧版手册呪文" sheetId="1" r:id="rId2"/>
     <sheet name="颜色对应" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet2 (5)" sheetId="9" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId5"/>
+    <sheet name="本体+颜色+目录修改" sheetId="9" r:id="rId4"/>
+    <sheet name="缺英即可导入" sheetId="4" r:id="rId5"/>
     <sheet name="Sheet2 (2)" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet2 (3)" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet2 (4)" sheetId="8" r:id="rId8"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="712">
   <si>
     <t>Key</t>
   </si>
@@ -1015,9 +1015,6 @@
     <t>中+英</t>
   </si>
   <si>
-    <t>中+英+简短日释义</t>
-  </si>
-  <si>
     <t>日</t>
   </si>
   <si>
@@ -1933,9 +1930,6 @@
     <t>阿尔哈兹莱德的油灯</t>
   </si>
   <si>
-    <t>非官方英释义</t>
-  </si>
-  <si>
     <t>HEAL/Heal</t>
   </si>
   <si>
@@ -1949,9 +1943,6 @@
   </si>
   <si>
     <t>対象の自然治癒速度を向上させる。</t>
-  </si>
-  <si>
-    <t>非官方英+简短日释义</t>
   </si>
   <si>
     <t>COMMANDSHARK/CommandShark</t>
@@ -2081,12 +2072,135 @@
       <t>ver1.0.0</t>
     </r>
   </si>
+  <si>
+    <t>这道咒文可令一名或数名牺牲者遭到恐怖的死亡。施法时间为1轮，须支付3点魔力值和1D8点理智值。只要施法者用手指在空中划出正确的纹路，暗红色的法印就会凭空亮起。从下一轮开始，法印会展现出它邪恶的效果；为了维持法印，施法者必须保持精神集中，每轮还要追加支付3点魔力值。</t>
+  </si>
+  <si>
+    <t>所有处在法印周围10码内的人每轮损失1D3点耐久，他们的身体会颤抖、痉挛，内脏和血管会剧烈抽搐。周围10码到30码内的人每轮损失1点耐久，30码外的人不受影响。躲在墙壁等不透明的障壁后可免除影响。施法者必须站在法印旁边集中精神，因为离法印过近，他自己也会每轮损失1点耐久。</t>
+  </si>
+  <si>
+    <t>束缚兽化人/物种之牢狱</t>
+  </si>
+  <si>
+    <t>这种类型的是导入前需要在目录以及各处修改的、如果只是英语表了那表示只需要改颜色</t>
+  </si>
+  <si>
+    <t>除去一个变形人（were-creature)想要控制他/她自己的形态改变的愿望，快速地迫使他/她变成所能变化成的动物形态。束缚人狼需要14点魔法值每个目标。每次仪式消耗2D4的理智值，无论在其中有多少兽化人。一个兽化人在等同于意志（POW）的游戏天数后褪下它的人类的一面。</t>
+  </si>
+  <si>
+    <t>一旦这个咒文被施展，目标兽化人持续不断地失去他/她选择形态改变的能力。他/她越来越变得像动物形态，当原始情感例如愤怒，害怕，性慾，饥饿变得越来越强。形态的变化是越来越容易触发的，并且不是可以选择的。这效果随著时间的流逝不断增强。在等同于1/2意志（POW）的天数后，目标有一半的时间是维持在动物形态。在等同于意志（POW）的天数后，人类的一面的生活会彻底地变得毫无吸引力以及枯燥乏味。这之后，兽化人就会作为一个动物在野外度过他余下的人生。</t>
+  </si>
+  <si>
+    <t>为了完成这个咒文，施法者需要一碗固体的银或者金。这碗的内侧必须被写著咒文的咒语。施法者同样必须刻一个圆形符文法阵在法术施展的地方的表面。六个蜡烛需要围著符文法阵并且顺时针点燃，否则他/她必须从头开始重复仪式。</t>
+  </si>
+  <si>
+    <t>最少六滴非凝固的人类血液必须被加在碗里。为了使目标对应到个人，在碗里需要放一些他/她的毛发，剪下的手指甲，个人物品等。可能一次会有超过一人的人数成为目标。咒文必须在一个小时内不被打断地吟唱。如果所有都正确实施了，碗会暂时发光，并且咒文开始起效了。</t>
+  </si>
+  <si>
+    <t>在咒文施展之后，目标兽化人会经历不断增长的基于动物一面需求的恐惧和渴望。例如，如果兽化人是半美洲狮，那么当在人类一面时，兽化人对敌人与对手会变得越来越冷淡，并具有掠夺性以及领土意识。被影响的兽化人不损失理智除非它了解到在它身上发生了什么；然后理智（SAN）损失1D3+1每日，直到等同于意志（POW）的天数过去。然后它失去所有仅存的理智（SAN），并且作为一个人类是永久疯狂的。</t>
+  </si>
+  <si>
+    <t>心脏之寻求</t>
+  </si>
+  <si>
+    <t>以意志驱使尸体，让其去寻找一个新鲜的心脏以取代它失去的部分。施展该咒文需要支付6点理智值与8点魔力值。同时，术者必须在一具可见尸体周遭一百码距离之内施法。</t>
+  </si>
+  <si>
+    <t>一当施咒，尸体将尽其所能找到第一个受害者。它会攻击受害者并撕开其腹腔，把他的心脏扯出。攻击者会将跃动的心脏嵌入尸首之内，享受著这转瞬即逝的狂喜。随后，寻索的死尸便会崩塌腐毁。正因这隐于肉体内的力量，一旦被抽离，尸体则迅速腐败。</t>
+  </si>
+  <si>
+    <t>咒文的效果将以分钟的长度持续等同造尸者的力量值＋体质值＋魔力值的时间。若在持续时间内尸体不能寻获新的心脏，它高鸣起低沉的耶利米哀歌，倒在地上化作尘埃。</t>
+  </si>
+  <si>
+    <t>每次施展咒文都需要一具仍未腐烂、相对新鲜的尸体。尸首的血液须要抽乾，并且取出其心脏。准备这具尸体以及施展这道咒文需要1D3个小时。</t>
+  </si>
+  <si>
+    <t>这里的“奴仆”指肖格纳尔·方创造出的生物。虽然只有肖格纳尔·方自己才能控制并命令这些奴隶，但任何人都可以召唤它们。咒文可召唤出1D6+1只奴隶，施法者须支付1D2点魔力值和0/1D2点理智值。</t>
+  </si>
+  <si>
+    <t>召唤必须在地下室、无窗的房间等与外界切断联系的空间中进行，施法者应全裸蹲在地面或地板上，集中精神，想像肖格纳尔·方的样子，同时咏唱、敲鼓，直到自己进入催眠状态为止。这样，肖格纳尔·方就会屈尊在施法者的心灵中出现，并吼道：“我伟大的光荣！”(To my greater glory!)。</t>
+  </si>
+  <si>
+    <t>此咒文可使所受的伤害得到最大限度的恢复。在自然恢复时，每周可以恢复3点耐久，如果受伤时成功使用了急救技能，则第一周可以恢复6点耐久。成功使用了医学技能，第一周可以恢复9点耐久。施法者须支付3点魔力值，不需支付理智值。施法时间为25轮，在此期间，施法者必须一直触碰受术者的身体。此外，若想让此咒文每周都发挥作用，就必须每周都施放一遍。</t>
+  </si>
+  <si>
+    <t>治疗术</t>
+  </si>
+  <si>
+    <t>召令鲨鱼</t>
+  </si>
+  <si>
+    <t>召令海豚</t>
+  </si>
+  <si>
+    <t>这道咒文用于把人献祭给海神，最初起源于南太平洋。施法者须支付1点魔力值，每追加1点魔力值，成功率增加10%。咒文必须在海上施放，要呼唤鲨鱼就将少量血液滴入海中，要呼唤海豚就将一些小活鱼投入海中。被唤来的生物会遵从施法者大声喊出的命令。若“幸运”检定成功，会有两只生物一起到来，但施法者无法控制第二只生物。</t>
+  </si>
+  <si>
+    <t>幻梦境用。只有河神俄刻拉诺斯才能施展，他会对惹恼他的人施加这项诅咒。被下咒的人会感到强烈的口渴，在幻梦境，这诅咒每1D3天就会出现一次，持续1D3小时。在清醒的世界，此人不管喝多少水也无法平息口渴的感觉。该人的体质值会每天下降1点，到死为止；只有回到幻梦境，完成某种义务，诅咒才会解除。如果满足了河神的要求，下降的体质值就可以每天1点的速度取回。</t>
+  </si>
+  <si>
+    <t>这道咒文必须由大批人一起咏唱。所有参加者都必须知晓本咒文，但不需知晓给巨噬蠕虫的命令。每名参加者都要支付1点魔力值，而咏唱的领导者则须支付1D6点魔力值和1D3点理智值。不管长达多少小时，咏唱都必须持续，直到巨噬蠕虫现身为止。</t>
+  </si>
+  <si>
+    <t>咏唱的领导者必须用自己的魔力值和巨噬蠕虫的魔力值对抗，如果取胜，从巨噬蠕虫出现的那一刻开始，他就能向它下达命令。只要不解放巨噬蠕虫，支配就会一直持续，领导者可以主动解放巨噬蠕虫，也可能因走神或睡著而不慎将它解放。被解放的巨噬蠕虫会立即消失。如果他在对抗中落败，巨噬蠕虫就会尝试吃掉在场的所有人，然后消失。现今没有任何一本地球上的书籍载有这道咒文。</t>
+  </si>
+  <si>
+    <t>光之空隙</t>
+  </si>
+  <si>
+    <t>米·戈用。这道咒文会精巧地扭曲空间，制造出一个光子无法摆脱的凹槽。米·戈每制造1立方码黑暗，就要付出1点魔力值。受咒文影响的区域将陷入完全的黑暗；米·戈在某种程度上是很脆弱的生物，它们会利用这种黑暗隐藏身形。守秘人可以任意决定准备这道咒文的要求，咒文制造出的黑暗可以是一片薄幕，也可以是一个球体。</t>
+  </si>
+  <si>
+    <t>召唤尼安贝的魔力</t>
+  </si>
+  <si>
+    <t>参见“尼安贝的魔力”</t>
+  </si>
+  <si>
+    <t>送往梦幻时代</t>
+  </si>
+  <si>
+    <t>这道咒文只有在月暗之时才能施展，而且施法者必须持有《梦幻时代的梦之传说》(Alcheringa Dream Lore)一书。施法者须将自己的1点意志值投入火中，随著夜逐渐变深，火焰会依次变成黄色、白色和蓝色。其后，施法者就可以把梦幻时代的影像灌注给被自己催眠的对象，对象的思维会在毫无准备和相关知识的情况下被突然投入梦幻时代。</t>
+  </si>
+  <si>
+    <t>如果在梦境中遇到了恐怖的事物，对象就可以投[智力值×1]，或者也可以每过1小时投一次[意志值×1]，如果成功，就会醒来。施法者和对象均会失去1D6点理智值，持续6小时。在对像做梦的时候，任何人用任何方式都不能把他唤醒。施法者每晚最多可使两人进入同样的梦境，支付的代价当然也要加倍。【译註：《梦幻时代的梦之传说》出自扩展规则《恐怖的南方大陆》(Terror Australis)。“Alcheringa”是澳大利亚原住民传说中的梦幻时代。】</t>
+  </si>
+  <si>
+    <t>冥王星之药</t>
+  </si>
+  <si>
+    <t>“这儿有五粒''辽丹''，中国的哲学家老子曾经使用过它。它可以让人幻视到''道''，''道''就是这个世界上最为神秘的力量，它包含一切、浸透一切。”</t>
+  </si>
+  <si>
+    <t>——F.贝尔克纳普·朗，《廷达洛斯猎犬》</t>
+  </si>
+  <si>
+    <t>这是一种魔法药品，可以把服用者的心灵送到遥远的过去。在故事中，就是因为往过去走得太远，才遭遇了廷达洛斯猎犬；猎犬可以通过“角度”，自由地往来于时流之中，如果它看见侵入者，就会立即追逐过去、将其吃掉。这种药可以是液体，也可以是药丸。</t>
+  </si>
+  <si>
+    <t>创造传送窗</t>
+  </si>
+  <si>
+    <t>这道咒文是“创造传送门”的另一个版本，只有神格存在或伟大的魔法师（拥有至少25点意志值）才能施放，创造出的传送窗可由该神格存在或魔法师控制。在这个版本中，传送所需的魔力值由神格存在或魔法师支付，使用者不须支付魔力值，旅行的距离也不受使用者的意志值限制。如果创造者愿意，可让传送窗的入口和出口不具备任何标志或记号，这些出入口可由创造者的意志随意开闭。传送窗可以是单向的，也可以是双向的。</t>
+  </si>
+  <si>
+    <t>中+英+简日</t>
+  </si>
+  <si>
+    <t>英</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>英+简日</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2130,13 +2244,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2159,7 +2266,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2214,6 +2321,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2230,7 +2343,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2257,13 +2370,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
@@ -2275,9 +2382,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2567,1869 +2682,1869 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52749F28-BD4A-42E3-8FF0-74AD0ADF569F}">
   <dimension ref="A1:C171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C172" sqref="C172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="2.41796875" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.1015625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="92.20703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7890625" style="20"/>
+    <col min="1" max="1" width="2.41796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.1015625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="92.20703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7890625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="B1" s="22" t="s">
-        <v>672</v>
-      </c>
-      <c r="C1" s="22"/>
+      <c r="B1" s="20" t="s">
+        <v>669</v>
+      </c>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>671</v>
-      </c>
-      <c r="C2" s="19" t="s">
+      <c r="A2" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>668</v>
       </c>
+      <c r="C2" s="17" t="s">
+        <v>665</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B3" s="20" t="s">
+      <c r="A3" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>667</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="18" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="20" t="s">
+      <c r="C5" s="20"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="18" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5" s="22" t="s">
-        <v>673</v>
-      </c>
-      <c r="C5" s="22"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="20" t="s">
+      <c r="B12" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="20" t="s">
+      <c r="B31" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" s="18" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="20" t="s">
+    <row r="65" spans="1:3">
+      <c r="A65" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="B31" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B49" s="20" t="s">
+      <c r="B72" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B80" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C80" s="18" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B81" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B82" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B83" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B84" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C84" s="18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B85" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="B86" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B87" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C87" s="18" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B88" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B89" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B90" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="B91" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B94" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="B95" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B96" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96" s="18" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B97" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B98" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C98" s="18" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B99" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C99" s="18" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="B100" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C100" s="18" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B101" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C101" s="18" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B102" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C102" s="18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B103" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C103" s="18" t="s">
         <v>332</v>
       </c>
-      <c r="C49" s="20" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C51" s="20" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="20" t="s">
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B104" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C104" s="18" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="B55" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B57" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B59" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B60" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="C60" s="20" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B63" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B64" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B65" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C65" s="20" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B66" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="C66" s="20" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B67" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B68" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C68" s="20" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B69" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C69" s="20" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B70" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="C70" s="20" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B71" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C71" s="20" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="20" t="s">
+      <c r="B105" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C105" s="18" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="B72" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C72" s="20" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B73" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C73" s="20" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B74" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C74" s="20" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B75" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C75" s="20" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B76" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" s="20" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B77" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="C77" s="20" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B78" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C78" s="20" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="20" t="s">
+      <c r="B106" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C106" s="18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="B79" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C79" s="20" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B80" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C80" s="20" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B81" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C81" s="20" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B82" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C82" s="20" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B83" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C83" s="20" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B84" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="C84" s="20" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B85" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C85" s="20" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="20" t="s">
+      <c r="B107" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C107" s="18" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B108" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" s="18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B109" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B110" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C110" s="18" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="B86" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="C86" s="20" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B87" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="C87" s="20" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B88" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C88" s="20" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B89" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C89" s="20" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B90" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="C90" s="20" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="20" t="s">
+      <c r="B111" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B112" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C112" s="18" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B113" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C113" s="18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B114" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C114" s="18" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B115" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C115" s="18" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B116" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C116" s="18" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B117" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C117" s="18" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B118" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C118" s="18" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B119" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C119" s="18" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B120" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" s="18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="B91" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="C91" s="20" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B92" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C92" s="20" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B93" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C93" s="20" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B94" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="C94" s="20" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="20" t="s">
+      <c r="B121" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C121" s="18" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B122" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C122" s="18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B123" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C123" s="18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B124" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C124" s="18" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B125" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C125" s="18" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B126" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C126" s="18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B127" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C127" s="18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B128" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C128" s="18" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B129" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C129" s="18" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="B95" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C95" s="20" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B96" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C96" s="20" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B97" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="C97" s="20" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B98" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C98" s="20" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B99" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C99" s="20" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="20" t="s">
+      <c r="B130" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C130" s="18" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B131" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C131" s="18" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B132" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C132" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B133" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C133" s="18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B134" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C134" s="18" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B135" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C135" s="18" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="B100" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="C100" s="20" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B101" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="C101" s="20" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B102" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C102" s="20" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B103" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C103" s="20" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B104" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C104" s="20" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="20" t="s">
+      <c r="B136" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136" s="18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B137" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C137" s="18" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B138" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C138" s="18" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B139" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C139" s="18" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B140" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C140" s="18" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B141" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C141" s="18" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B142" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C142" s="18" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B143" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C143" s="18" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B144" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C144" s="18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B145" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C145" s="18" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B146" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C146" s="18" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B147" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C147" s="18" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B148" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C148" s="18" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B149" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C149" s="18" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B150" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C150" s="18" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B151" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C151" s="18" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B152" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C152" s="18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B153" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C153" s="18" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B154" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C154" s="18" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B155" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C155" s="18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B156" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C156" s="18" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="B105" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C105" s="20" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="20" t="s">
+      <c r="B157" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C157" s="18" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B158" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C158" s="18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="B106" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C106" s="20" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="20" t="s">
+      <c r="B159" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C159" s="18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B160" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C160" s="18" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="B107" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C107" s="20" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B108" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C108" s="20" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B109" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C109" s="20" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B110" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="C110" s="20" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="20" t="s">
+      <c r="B161" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C161" s="18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B162" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C162" s="18" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B163" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C163" s="18" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B164" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C164" s="18" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B165" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C165" s="18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="B111" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="C111" s="20" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B112" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C112" s="20" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B113" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C113" s="20" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B114" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C114" s="20" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B115" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C115" s="20" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B116" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C116" s="20" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B117" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C117" s="20" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B118" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C118" s="20" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B119" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C119" s="20" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B120" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C120" s="20" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="B121" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="C121" s="20" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B122" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C122" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B123" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C123" s="20" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B124" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="C124" s="20" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B125" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="C125" s="20" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B126" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C126" s="20" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B127" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C127" s="20" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B128" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="C128" s="20" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B129" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C129" s="20" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="B130" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C130" s="20" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B131" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="C131" s="20" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B132" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C132" s="20" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B133" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C133" s="20" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B134" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C134" s="20" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B135" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C135" s="20" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="B136" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C136" s="20" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B137" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C137" s="20" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B138" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C138" s="20" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B139" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="C139" s="20" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B140" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="C140" s="20" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B141" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C141" s="20" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B142" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C142" s="20" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B143" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C143" s="20" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B144" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C144" s="20" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B145" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C145" s="20" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B146" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="C146" s="20" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B147" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C147" s="20" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B148" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C148" s="20" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B149" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C149" s="20" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B150" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C150" s="20" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B151" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C151" s="20" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B152" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C152" s="20" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B153" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C153" s="20" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B154" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C154" s="20" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B155" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C155" s="20" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B156" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C156" s="20" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="B157" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C157" s="20" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B158" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C158" s="20" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="B159" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C159" s="20" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B160" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="C160" s="20" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="B161" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C161" s="20" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B162" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="C162" s="20" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B163" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="C163" s="20" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B164" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C164" s="20" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B165" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C165" s="20" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="B166" s="20" t="s">
+      <c r="B166" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C166" s="20" t="s">
+      <c r="C166" s="18" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B167" s="20" t="s">
+      <c r="A167" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B167" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="C167" s="20" t="s">
+      <c r="C167" s="18" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B168" s="20" t="s">
+      <c r="A168" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B168" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="C168" s="20" t="s">
+      <c r="C168" s="18" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B169" s="20" t="s">
+      <c r="A169" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B169" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="C169" s="20" t="s">
+      <c r="C169" s="18" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B170" s="20" t="s">
+      <c r="A170" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B170" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C170" s="20" t="s">
+      <c r="C170" s="18" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B171" s="20" t="s">
+      <c r="A171" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B171" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C171" s="20" t="s">
+      <c r="C171" s="18" t="s">
         <v>272</v>
       </c>
     </row>
@@ -4452,8 +4567,8 @@
   <dimension ref="A1:F166"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4596,7 +4711,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4764,7 +4879,7 @@
         <v>39</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4804,7 +4919,7 @@
         <v>44</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4828,15 +4943,15 @@
         <v>47</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4948,7 +5063,7 @@
         <v>60</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -4972,7 +5087,7 @@
         <v>213</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -5156,7 +5271,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -5172,7 +5287,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -5332,7 +5447,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -5452,7 +5567,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -5588,7 +5703,7 @@
         <v>136</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -5596,7 +5711,7 @@
         <v>137</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -5612,7 +5727,7 @@
         <v>139</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -5636,7 +5751,7 @@
         <v>142</v>
       </c>
       <c r="B145" s="14" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -5724,7 +5839,7 @@
         <v>153</v>
       </c>
       <c r="B156" s="14" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -5788,7 +5903,7 @@
         <v>161</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -5815,58 +5930,56 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2888357-E040-45AE-90AA-C2F78C3ED7B6}">
-  <dimension ref="B2:C16"/>
+  <dimension ref="B2:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:6">
       <c r="B2" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:6">
       <c r="B4" s="7"/>
       <c r="C4" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="6" spans="2:3">
+      <c r="E4" s="24"/>
+      <c r="F4" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
       <c r="B6" s="8"/>
       <c r="C6" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="8" spans="2:3">
+      <c r="E6" s="10"/>
+      <c r="F6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
       <c r="B8" s="9"/>
       <c r="C8" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="10"/>
+        <v>708</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="15"/>
       <c r="C10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="14"/>
-      <c r="C12" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="15"/>
-      <c r="C14" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="6"/>
-      <c r="C16" t="s">
+        <v>711</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" t="s">
         <v>322</v>
       </c>
     </row>
@@ -5879,8 +5992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F96A3617-A054-470C-8EEA-BD111A2FEE05}">
   <dimension ref="A1:X20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15.3" customHeight="1"/>
@@ -5899,12 +6012,15 @@
       <c r="A2" s="11" t="s">
         <v>317</v>
       </c>
+      <c r="B2" s="22" t="s">
+        <v>674</v>
+      </c>
       <c r="V2" s="12"/>
       <c r="X2" s="11"/>
     </row>
     <row r="3" spans="1:24" ht="15.3" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>324</v>
@@ -5931,7 +6047,7 @@
         <v>47</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L3" s="12" t="s">
         <v>27</v>
@@ -5973,7 +6089,7 @@
       </c>
       <c r="C4" s="13"/>
       <c r="I4" s="11" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="V4" s="12"/>
     </row>
@@ -5983,7 +6099,7 @@
       </c>
       <c r="C5" s="13"/>
       <c r="I5" s="11" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="V5" s="12"/>
     </row>
@@ -5993,7 +6109,7 @@
       </c>
       <c r="C6" s="13"/>
       <c r="I6" s="11" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="V6" s="12"/>
     </row>
@@ -6015,50 +6131,162 @@
         <v>323</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>621</v>
+        <v>620</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>680</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>673</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>632</v>
+        <v>631</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>688</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>689</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>690</v>
       </c>
       <c r="L9" s="11" t="s">
+        <v>644</v>
+      </c>
+      <c r="M9" s="21" t="s">
         <v>647</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="N9" s="11" t="s">
         <v>650</v>
       </c>
-      <c r="N9" s="11" t="s">
-        <v>653</v>
-      </c>
-      <c r="V9" s="12"/>
+      <c r="O9" s="21" t="s">
+        <v>695</v>
+      </c>
+      <c r="P9" s="21" t="s">
+        <v>697</v>
+      </c>
+      <c r="R9" s="21" t="s">
+        <v>699</v>
+      </c>
+      <c r="S9" s="21" t="s">
+        <v>702</v>
+      </c>
+      <c r="V9" s="21" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="10" spans="1:24" ht="15.3" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="V10" s="12"/>
+      <c r="D10" s="11" t="s">
+        <v>685</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>675</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>691</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>640</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>692</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>693</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>696</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>700</v>
+      </c>
+      <c r="S10" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="V10" s="12" t="s">
+        <v>707</v>
+      </c>
     </row>
     <row r="11" spans="1:24" ht="15.3" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>318</v>
       </c>
+      <c r="D11" s="11" t="s">
+        <v>686</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>682</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>676</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>672</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>694</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="R11" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="S11" s="11" t="s">
+        <v>704</v>
+      </c>
       <c r="V11" s="12"/>
     </row>
     <row r="12" spans="1:24" ht="15.3" customHeight="1">
       <c r="B12" s="11" t="s">
         <v>318</v>
       </c>
+      <c r="E12" s="11" t="s">
+        <v>683</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>677</v>
+      </c>
+      <c r="S12" s="11" t="s">
+        <v>705</v>
+      </c>
       <c r="V12" s="12"/>
     </row>
     <row r="13" spans="1:24" ht="15.3" customHeight="1">
       <c r="B13" s="11" t="s">
         <v>318</v>
       </c>
+      <c r="E13" s="11" t="s">
+        <v>684</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>678</v>
+      </c>
       <c r="V13" s="12"/>
     </row>
     <row r="14" spans="1:24" ht="15.3" customHeight="1">
+      <c r="F14" s="11" t="s">
+        <v>679</v>
+      </c>
       <c r="V14" s="12"/>
     </row>
     <row r="15" spans="1:24" ht="15.3" customHeight="1">
@@ -6068,62 +6296,62 @@
       <c r="C15" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>620</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>623</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>625</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>628</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>631</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>634</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>640</v>
-      </c>
-      <c r="K15" s="18" t="s">
-        <v>641</v>
-      </c>
-      <c r="L15" s="17" t="s">
+      <c r="D15" s="21" t="s">
+        <v>619</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>622</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>627</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>630</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>632</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>637</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>638</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>643</v>
+      </c>
+      <c r="M15" s="21" t="s">
         <v>646</v>
       </c>
-      <c r="M15" s="17" t="s">
+      <c r="N15" s="21" t="s">
         <v>649</v>
       </c>
-      <c r="N15" s="17" t="s">
+      <c r="O15" s="21" t="s">
         <v>652</v>
       </c>
-      <c r="O15" s="14" t="s">
+      <c r="P15" s="21" t="s">
+        <v>653</v>
+      </c>
+      <c r="Q15" s="14" t="s">
         <v>655</v>
       </c>
-      <c r="P15" s="14" t="s">
-        <v>656</v>
-      </c>
-      <c r="Q15" s="14" t="s">
-        <v>658</v>
-      </c>
-      <c r="R15" s="14" t="s">
-        <v>660</v>
-      </c>
-      <c r="S15" s="14" t="s">
-        <v>662</v>
+      <c r="R15" s="21" t="s">
+        <v>657</v>
+      </c>
+      <c r="S15" s="21" t="s">
+        <v>659</v>
       </c>
       <c r="T15" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="U15" s="14" t="s">
         <v>664</v>
       </c>
-      <c r="U15" s="14" t="s">
-        <v>667</v>
-      </c>
-      <c r="V15" s="6" t="s">
-        <v>330</v>
+      <c r="V15" s="12" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="15.3" customHeight="1">
@@ -6131,58 +6359,58 @@
         <v>318</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F16" s="11" t="s">
+        <v>625</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>626</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>627</v>
-      </c>
       <c r="H16" s="11" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>642</v>
-      </c>
-      <c r="K16" s="16" t="s">
-        <v>643</v>
+        <v>639</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>640</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="M16" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="N16" s="11" t="s">
         <v>648</v>
       </c>
-      <c r="N16" s="11" t="s">
+      <c r="O16" s="11" t="s">
         <v>651</v>
       </c>
-      <c r="O16" s="11" t="s">
+      <c r="P16" s="11" t="s">
         <v>654</v>
       </c>
-      <c r="P16" s="11" t="s">
-        <v>657</v>
-      </c>
       <c r="Q16" s="11" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="S16" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="T16" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="U16" s="11" t="s">
         <v>663</v>
-      </c>
-      <c r="T16" s="11" t="s">
-        <v>665</v>
-      </c>
-      <c r="U16" s="11" t="s">
-        <v>666</v>
       </c>
       <c r="V16" s="12"/>
     </row>
@@ -6192,7 +6420,7 @@
       </c>
       <c r="D17" s="12"/>
       <c r="L17" s="11" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="V17" s="12"/>
     </row>
@@ -6226,7 +6454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB29E7B-1F47-4182-A380-70416D0F951F}">
   <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+    <sheetView zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
       <selection activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
@@ -6251,7 +6479,7 @@
     </row>
     <row r="3" spans="1:26" ht="15.3" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>324</v>
@@ -6332,39 +6560,39 @@
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F4" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>430</v>
-      </c>
       <c r="I4" s="11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="V4" s="12"/>
       <c r="W4" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="X4" s="11"/>
       <c r="Y4" s="11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.3" customHeight="1">
@@ -6373,30 +6601,30 @@
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V5" s="12"/>
       <c r="W5" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="X5" s="11"/>
       <c r="Y5" s="11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.3" customHeight="1">
@@ -6405,30 +6633,30 @@
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="Q6" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="V6" s="12"/>
       <c r="W6" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="X6" s="11"/>
       <c r="Y6" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.3" customHeight="1">
@@ -6437,39 +6665,39 @@
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="V7" s="12"/>
       <c r="W7" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="X7" s="11"/>
       <c r="Y7" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.3" customHeight="1">
       <c r="Q8" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="V8" s="12"/>
       <c r="W8" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="X8" s="11"/>
     </row>
@@ -6481,73 +6709,73 @@
         <v>323</v>
       </c>
       <c r="D9" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="F9" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="G9" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="H9" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="H9" s="11" t="s">
-        <v>338</v>
-      </c>
       <c r="I9" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J9" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="K9" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="L9" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="M9" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="M9" s="11" t="s">
-        <v>349</v>
-      </c>
       <c r="N9" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="O9" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="P9" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="Q9" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="R9" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="S9" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="S9" s="11" t="s">
-        <v>359</v>
-      </c>
       <c r="T9" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="U9" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="U9" s="11" t="s">
+      <c r="V9" s="12" t="s">
         <v>436</v>
       </c>
-      <c r="V9" s="12" t="s">
+      <c r="W9" s="12" t="s">
         <v>437</v>
       </c>
-      <c r="W9" s="12" t="s">
+      <c r="X9" s="11" t="s">
         <v>438</v>
       </c>
-      <c r="X9" s="11" t="s">
+      <c r="Y9" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="Y9" s="11" t="s">
+      <c r="Z9" s="11" t="s">
         <v>440</v>
-      </c>
-      <c r="Z9" s="11" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.3" customHeight="1">
@@ -6555,73 +6783,73 @@
         <v>318</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G10" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="H10" s="11" t="s">
-        <v>382</v>
-      </c>
       <c r="I10" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="S10" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="T10" s="11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="U10" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="V10" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="W10" s="12" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="X10" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="Y10" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="Z10" s="11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.3" customHeight="1">
@@ -6629,73 +6857,73 @@
         <v>318</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="O11" s="11" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="P11" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Q11" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="S11" s="11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="U11" s="11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W11" s="12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="X11" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y11" s="11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="Z11" s="11" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.3" customHeight="1">
@@ -6703,73 +6931,73 @@
         <v>318</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="P12" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q12" s="11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="S12" s="11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="U12" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="W12" s="12" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="X12" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Y12" s="11" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="Z12" s="11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.3" customHeight="1">
@@ -6777,73 +7005,73 @@
         <v>318</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="O13" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="P13" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="Q13" s="11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="S13" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="U13" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="V13" s="12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="W13" s="12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="X13" s="11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="Y13" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="Z13" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.3" customHeight="1">
@@ -6858,73 +7086,73 @@
         <v>325</v>
       </c>
       <c r="D15" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="F15" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="G15" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="H15" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="H15" s="11" t="s">
-        <v>343</v>
-      </c>
       <c r="I15" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J15" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="K15" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="L15" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="M15" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="M15" s="11" t="s">
-        <v>353</v>
-      </c>
       <c r="N15" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="O15" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="O15" s="11" t="s">
+      <c r="P15" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="P15" s="11" t="s">
+      <c r="Q15" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="Q15" s="11" t="s">
+      <c r="R15" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="R15" s="11" t="s">
+      <c r="S15" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="S15" s="11" t="s">
-        <v>365</v>
-      </c>
       <c r="T15" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="U15" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="U15" s="11" t="s">
+      <c r="V15" s="12" t="s">
         <v>443</v>
       </c>
-      <c r="V15" s="12" t="s">
+      <c r="W15" s="12" t="s">
         <v>444</v>
       </c>
-      <c r="W15" s="12" t="s">
+      <c r="X15" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="X15" s="11" t="s">
+      <c r="Y15" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="Y15" s="11" t="s">
+      <c r="Z15" s="11" t="s">
         <v>447</v>
-      </c>
-      <c r="Z15" s="11" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15.3" customHeight="1">
@@ -6996,7 +7224,7 @@
     </row>
     <row r="3" spans="1:25" ht="15.3" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>324</v>
@@ -7117,70 +7345,70 @@
         <v>323</v>
       </c>
       <c r="D9" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>496</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="F9" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="G9" s="11" t="s">
         <v>498</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="H9" s="11" t="s">
         <v>499</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="I9" s="11" t="s">
         <v>500</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="J9" s="11" t="s">
         <v>501</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="K9" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="L9" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="M9" s="11" t="s">
         <v>504</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="N9" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="O9" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="P9" s="11" t="s">
         <v>507</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="Q9" s="11" t="s">
         <v>508</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="R9" s="11" t="s">
         <v>509</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="S9" s="11" t="s">
         <v>510</v>
       </c>
-      <c r="S9" s="11" t="s">
+      <c r="T9" s="11" t="s">
         <v>511</v>
       </c>
-      <c r="T9" s="11" t="s">
+      <c r="U9" s="11" t="s">
         <v>512</v>
       </c>
-      <c r="U9" s="11" t="s">
+      <c r="V9" s="12" t="s">
         <v>513</v>
       </c>
-      <c r="V9" s="12" t="s">
+      <c r="W9" s="12" t="s">
         <v>514</v>
       </c>
-      <c r="W9" s="12" t="s">
+      <c r="X9" s="11" t="s">
         <v>515</v>
       </c>
-      <c r="X9" s="11" t="s">
+      <c r="Y9" s="11" t="s">
         <v>516</v>
-      </c>
-      <c r="Y9" s="11" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="15.3" customHeight="1">
@@ -7223,70 +7451,70 @@
         <v>325</v>
       </c>
       <c r="D15" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>518</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="F15" s="11" t="s">
         <v>519</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="G15" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="H15" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="I15" s="11" t="s">
         <v>522</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="J15" s="11" t="s">
         <v>523</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="K15" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="L15" s="11" t="s">
         <v>525</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="M15" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="M15" s="11" t="s">
+      <c r="N15" s="11" t="s">
         <v>527</v>
       </c>
-      <c r="N15" s="11" t="s">
+      <c r="O15" s="11" t="s">
         <v>528</v>
       </c>
-      <c r="O15" s="11" t="s">
+      <c r="P15" s="11" t="s">
         <v>529</v>
       </c>
-      <c r="P15" s="11" t="s">
+      <c r="Q15" s="11" t="s">
         <v>530</v>
       </c>
-      <c r="Q15" s="11" t="s">
+      <c r="R15" s="11" t="s">
         <v>531</v>
       </c>
-      <c r="R15" s="11" t="s">
+      <c r="S15" s="11" t="s">
         <v>532</v>
       </c>
-      <c r="S15" s="11" t="s">
+      <c r="T15" s="11" t="s">
         <v>533</v>
       </c>
-      <c r="T15" s="11" t="s">
+      <c r="U15" s="11" t="s">
         <v>534</v>
       </c>
-      <c r="U15" s="11" t="s">
+      <c r="V15" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="V15" s="12" t="s">
+      <c r="W15" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="W15" s="12" t="s">
+      <c r="X15" s="11" t="s">
         <v>537</v>
       </c>
-      <c r="X15" s="11" t="s">
+      <c r="Y15" s="12" t="s">
         <v>538</v>
-      </c>
-      <c r="Y15" s="12" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="15.3" customHeight="1">
@@ -7358,7 +7586,7 @@
     </row>
     <row r="3" spans="1:25" ht="15.3" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>324</v>
@@ -7474,64 +7702,64 @@
         <v>323</v>
       </c>
       <c r="D9" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>540</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="F9" s="11" t="s">
         <v>541</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="G9" s="11" t="s">
         <v>542</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="H9" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="I9" s="11" t="s">
         <v>544</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="J9" s="11" t="s">
         <v>545</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="K9" s="11" t="s">
         <v>546</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="L9" s="11" t="s">
         <v>547</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="M9" s="11" t="s">
         <v>548</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="N9" s="11" t="s">
         <v>549</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="O9" s="11" t="s">
         <v>550</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="P9" s="11" t="s">
         <v>551</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="Q9" s="11" t="s">
         <v>552</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="R9" s="11" t="s">
         <v>553</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="S9" s="11" t="s">
         <v>554</v>
       </c>
-      <c r="S9" s="11" t="s">
+      <c r="T9" s="11" t="s">
         <v>555</v>
       </c>
-      <c r="T9" s="11" t="s">
+      <c r="U9" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="V9" s="12" t="s">
         <v>556</v>
       </c>
-      <c r="U9" s="11" t="s">
-        <v>556</v>
-      </c>
-      <c r="V9" s="12" t="s">
+      <c r="W9" s="12" t="s">
         <v>557</v>
-      </c>
-      <c r="W9" s="12" t="s">
-        <v>558</v>
       </c>
       <c r="X9" s="11"/>
     </row>
@@ -7575,64 +7803,64 @@
         <v>325</v>
       </c>
       <c r="D15" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>559</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="F15" s="11" t="s">
         <v>560</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="G15" s="11" t="s">
         <v>561</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="H15" s="11" t="s">
         <v>562</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="I15" s="11" t="s">
         <v>563</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="J15" s="11" t="s">
         <v>564</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="K15" s="11" t="s">
         <v>565</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="L15" s="11" t="s">
         <v>566</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="M15" s="11" t="s">
         <v>567</v>
       </c>
-      <c r="M15" s="11" t="s">
+      <c r="N15" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="N15" s="11" t="s">
+      <c r="O15" s="11" t="s">
         <v>569</v>
       </c>
-      <c r="O15" s="11" t="s">
+      <c r="P15" s="11" t="s">
         <v>570</v>
       </c>
-      <c r="P15" s="11" t="s">
+      <c r="Q15" s="11" t="s">
         <v>571</v>
       </c>
-      <c r="Q15" s="11" t="s">
+      <c r="R15" s="11" t="s">
         <v>572</v>
       </c>
-      <c r="R15" s="11" t="s">
+      <c r="S15" s="11" t="s">
         <v>573</v>
       </c>
-      <c r="S15" s="11" t="s">
+      <c r="T15" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="T15" s="11" t="s">
+      <c r="U15" s="11" t="s">
         <v>575</v>
       </c>
-      <c r="U15" s="11" t="s">
+      <c r="V15" s="12" t="s">
         <v>576</v>
       </c>
-      <c r="V15" s="12" t="s">
+      <c r="W15" s="12" t="s">
         <v>577</v>
-      </c>
-      <c r="W15" s="12" t="s">
-        <v>578</v>
       </c>
       <c r="X15" s="11"/>
       <c r="Y15" s="12"/>
@@ -7706,7 +7934,7 @@
     </row>
     <row r="3" spans="1:25" ht="15.3" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>324</v>
@@ -7823,64 +8051,64 @@
         <v>323</v>
       </c>
       <c r="D9" s="11" t="s">
+        <v>578</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="F9" s="11" t="s">
         <v>580</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="G9" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="H9" s="11" t="s">
         <v>582</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="I9" s="11" t="s">
         <v>583</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="J9" s="11" t="s">
         <v>584</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="K9" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="L9" s="11" t="s">
         <v>586</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="M9" s="11" t="s">
         <v>587</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="N9" s="11" t="s">
         <v>588</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="O9" s="11" t="s">
         <v>589</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="P9" s="11" t="s">
         <v>590</v>
       </c>
-      <c r="P9" s="11" t="s">
-        <v>591</v>
-      </c>
       <c r="Q9" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="R9" s="11" t="s">
         <v>605</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="S9" s="11" t="s">
         <v>606</v>
       </c>
-      <c r="S9" s="11" t="s">
+      <c r="T9" s="11" t="s">
         <v>607</v>
       </c>
-      <c r="T9" s="11" t="s">
+      <c r="U9" s="11" t="s">
         <v>608</v>
       </c>
-      <c r="U9" s="11" t="s">
+      <c r="V9" s="12" t="s">
         <v>609</v>
       </c>
-      <c r="V9" s="12" t="s">
+      <c r="W9" s="12" t="s">
         <v>610</v>
-      </c>
-      <c r="W9" s="12" t="s">
-        <v>611</v>
       </c>
       <c r="X9" s="11"/>
     </row>
@@ -7924,64 +8152,64 @@
         <v>325</v>
       </c>
       <c r="D15" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="F15" s="11" t="s">
         <v>593</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="G15" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="H15" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="I15" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="J15" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="P15" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="J15" s="11" t="s">
-        <v>599</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>600</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>601</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>602</v>
-      </c>
-      <c r="N15" s="11" t="s">
-        <v>603</v>
-      </c>
-      <c r="O15" s="11" t="s">
-        <v>604</v>
-      </c>
-      <c r="P15" s="11" t="s">
-        <v>598</v>
-      </c>
       <c r="Q15" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="R15" s="11" t="s">
         <v>612</v>
       </c>
-      <c r="R15" s="11" t="s">
+      <c r="S15" s="11" t="s">
         <v>613</v>
       </c>
-      <c r="S15" s="11" t="s">
+      <c r="T15" s="11" t="s">
         <v>614</v>
       </c>
-      <c r="T15" s="11" t="s">
+      <c r="U15" s="11" t="s">
         <v>615</v>
       </c>
-      <c r="U15" s="11" t="s">
+      <c r="V15" s="12" t="s">
         <v>616</v>
       </c>
-      <c r="V15" s="12" t="s">
+      <c r="W15" s="12" t="s">
         <v>617</v>
-      </c>
-      <c r="W15" s="12" t="s">
-        <v>618</v>
       </c>
       <c r="X15" s="11"/>
     </row>

--- a/call_of_cthulhu/magic/CJE/旧版手册呪文_仅名称.xlsx
+++ b/call_of_cthulhu/magic/CJE/旧版手册呪文_仅名称.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d2c6fb186291c3cd/github/alll/call_of_cthulhu/magic/CJE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="920" documentId="13_ncr:1_{E16AFC2B-E770-4477-B830-0D96E1264306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B385123-BA59-4437-8153-C8D298B9FD76}"/>
+  <xr:revisionPtr revIDLastSave="922" documentId="13_ncr:1_{E16AFC2B-E770-4477-B830-0D96E1264306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F9393E7-34CD-4DED-BFB8-BF6E5369D22F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1770" windowWidth="12792" windowHeight="10512" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1770" windowWidth="12792" windowHeight="10512" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AZ目录" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="712">
   <si>
     <t>Key</t>
   </si>
@@ -2343,7 +2343,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2379,20 +2379,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2682,8 +2679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52749F28-BD4A-42E3-8FF0-74AD0ADF569F}">
   <dimension ref="A1:C171"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C172" sqref="C172"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C165" sqref="C165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4"/>
@@ -2695,10 +2692,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="23" t="s">
         <v>669</v>
       </c>
-      <c r="C1" s="20"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="18" t="s">
@@ -2728,1824 +2725,834 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="23" t="s">
         <v>670</v>
       </c>
-      <c r="C5" s="20"/>
+      <c r="C5" s="23"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>250</v>
-      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>182</v>
-      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>198</v>
-      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>297</v>
-      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="18" t="s">
         <v>318</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>264</v>
-      </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>279</v>
-      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>294</v>
-      </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B15" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>170</v>
-      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B19" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B20" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B22" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B23" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B24" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B25" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B26" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B27" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B28" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B29" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B30" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+    </row>
+    <row r="31" spans="1:1">
       <c r="A31" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="B31" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+    </row>
+    <row r="32" spans="1:1">
       <c r="A32" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B32" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B33" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+    </row>
+    <row r="34" spans="1:1">
       <c r="A34" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B34" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+    </row>
+    <row r="35" spans="1:1">
       <c r="A35" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B35" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+    </row>
+    <row r="36" spans="1:1">
       <c r="A36" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B36" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+    </row>
+    <row r="37" spans="1:1">
       <c r="A37" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B37" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+    </row>
+    <row r="38" spans="1:1">
       <c r="A38" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B38" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+    </row>
+    <row r="39" spans="1:1">
       <c r="A39" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B39" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+    </row>
+    <row r="40" spans="1:1">
       <c r="A40" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B40" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+    </row>
+    <row r="41" spans="1:1">
       <c r="A41" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B41" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+    </row>
+    <row r="42" spans="1:1">
       <c r="A42" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B42" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+    </row>
+    <row r="43" spans="1:1">
       <c r="A43" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B43" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+    </row>
+    <row r="44" spans="1:1">
       <c r="A44" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B44" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+    </row>
+    <row r="45" spans="1:1">
       <c r="A45" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B45" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+    </row>
+    <row r="46" spans="1:1">
       <c r="A46" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B46" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+    </row>
+    <row r="47" spans="1:1">
       <c r="A47" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B47" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="C47" s="18" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+    </row>
+    <row r="48" spans="1:1">
       <c r="A48" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B48" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+    </row>
+    <row r="49" spans="1:1">
       <c r="A49" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B49" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B50" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+    </row>
+    <row r="51" spans="1:1">
       <c r="A51" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B51" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+    </row>
+    <row r="52" spans="1:1">
       <c r="A52" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B52" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+    </row>
+    <row r="53" spans="1:1">
       <c r="A53" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B53" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+    </row>
+    <row r="54" spans="1:1">
       <c r="A54" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B54" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C54" s="18" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+    </row>
+    <row r="55" spans="1:1">
       <c r="A55" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="B55" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+    </row>
+    <row r="56" spans="1:1">
       <c r="A56" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B56" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="C56" s="18" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+    </row>
+    <row r="57" spans="1:1">
       <c r="A57" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B57" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="C57" s="18" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+    </row>
+    <row r="58" spans="1:1">
       <c r="A58" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B58" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C58" s="18" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+    </row>
+    <row r="59" spans="1:1">
       <c r="A59" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B59" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="C59" s="18" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+    </row>
+    <row r="60" spans="1:1">
       <c r="A60" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B60" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="C60" s="18" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+    </row>
+    <row r="61" spans="1:1">
       <c r="A61" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B61" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C61" s="18" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+    </row>
+    <row r="62" spans="1:1">
       <c r="A62" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B62" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C62" s="18" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+    </row>
+    <row r="63" spans="1:1">
       <c r="A63" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B63" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C63" s="18" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+    </row>
+    <row r="64" spans="1:1">
       <c r="A64" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B64" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C64" s="18" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+    </row>
+    <row r="65" spans="1:1">
       <c r="A65" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B65" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C65" s="18" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+    </row>
+    <row r="66" spans="1:1">
       <c r="A66" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B66" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="C66" s="18" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+    </row>
+    <row r="67" spans="1:1">
       <c r="A67" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B67" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C67" s="18" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+    </row>
+    <row r="68" spans="1:1">
       <c r="A68" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B68" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C68" s="18" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+    </row>
+    <row r="69" spans="1:1">
       <c r="A69" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B69" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C69" s="18" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+    </row>
+    <row r="70" spans="1:1">
       <c r="A70" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B70" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C70" s="18" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+    </row>
+    <row r="71" spans="1:1">
       <c r="A71" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B71" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C71" s="18" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+    </row>
+    <row r="72" spans="1:1">
       <c r="A72" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="B72" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C72" s="18" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+    </row>
+    <row r="73" spans="1:1">
       <c r="A73" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B73" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="C73" s="18" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+    </row>
+    <row r="74" spans="1:1">
       <c r="A74" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B74" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C74" s="18" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+    </row>
+    <row r="75" spans="1:1">
       <c r="A75" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B75" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C75" s="18" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+    </row>
+    <row r="76" spans="1:1">
       <c r="A76" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B76" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" s="18" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+    </row>
+    <row r="77" spans="1:1">
       <c r="A77" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B77" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="C77" s="18" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+    </row>
+    <row r="78" spans="1:1">
       <c r="A78" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B78" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C78" s="18" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+    </row>
+    <row r="79" spans="1:1">
       <c r="A79" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="B79" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C79" s="18" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+    </row>
+    <row r="80" spans="1:1">
       <c r="A80" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B80" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C80" s="18" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+    </row>
+    <row r="81" spans="1:1">
       <c r="A81" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B81" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C81" s="18" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+    </row>
+    <row r="82" spans="1:1">
       <c r="A82" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B82" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C82" s="18" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+    </row>
+    <row r="83" spans="1:1">
       <c r="A83" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B83" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C83" s="18" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+    </row>
+    <row r="84" spans="1:1">
       <c r="A84" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B84" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="C84" s="18" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+    </row>
+    <row r="85" spans="1:1">
       <c r="A85" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B85" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C85" s="18" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+    </row>
+    <row r="86" spans="1:1">
       <c r="A86" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="B86" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="C86" s="18" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+    </row>
+    <row r="87" spans="1:1">
       <c r="A87" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B87" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="C87" s="18" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+    </row>
+    <row r="88" spans="1:1">
       <c r="A88" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B88" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="C88" s="18" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+    </row>
+    <row r="89" spans="1:1">
       <c r="A89" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B89" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C89" s="18" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+    </row>
+    <row r="90" spans="1:1">
       <c r="A90" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B90" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="C90" s="18" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+    </row>
+    <row r="91" spans="1:1">
       <c r="A91" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="B91" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="C91" s="18" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+    </row>
+    <row r="92" spans="1:1">
       <c r="A92" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B92" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="C92" s="18" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+    </row>
+    <row r="93" spans="1:1">
       <c r="A93" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B93" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C93" s="18" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+    </row>
+    <row r="94" spans="1:1">
       <c r="A94" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B94" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C94" s="18" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+    </row>
+    <row r="95" spans="1:1">
       <c r="A95" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="B95" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C95" s="18" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+    </row>
+    <row r="96" spans="1:1">
       <c r="A96" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B96" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C96" s="18" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+    </row>
+    <row r="97" spans="1:1">
       <c r="A97" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B97" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="C97" s="18" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+    </row>
+    <row r="98" spans="1:1">
       <c r="A98" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B98" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C98" s="18" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+    </row>
+    <row r="99" spans="1:1">
       <c r="A99" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B99" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C99" s="18" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+    </row>
+    <row r="100" spans="1:1">
       <c r="A100" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="B100" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="C100" s="18" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+    </row>
+    <row r="101" spans="1:1">
       <c r="A101" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B101" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="C101" s="18" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+    </row>
+    <row r="102" spans="1:1">
       <c r="A102" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B102" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C102" s="18" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+    </row>
+    <row r="103" spans="1:1">
       <c r="A103" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B103" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C103" s="18" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+    </row>
+    <row r="104" spans="1:1">
       <c r="A104" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B104" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C104" s="18" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+    </row>
+    <row r="105" spans="1:1">
       <c r="A105" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="B105" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="C105" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+    </row>
+    <row r="106" spans="1:1">
       <c r="A106" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="B106" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C106" s="18" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+    </row>
+    <row r="107" spans="1:1">
       <c r="A107" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="B107" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C107" s="18" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+    </row>
+    <row r="108" spans="1:1">
       <c r="A108" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B108" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C108" s="18" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+    </row>
+    <row r="109" spans="1:1">
       <c r="A109" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B109" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C109" s="18" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+    </row>
+    <row r="110" spans="1:1">
       <c r="A110" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B110" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="C110" s="18" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+    </row>
+    <row r="111" spans="1:1">
       <c r="A111" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="B111" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="C111" s="18" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
+    </row>
+    <row r="112" spans="1:1">
       <c r="A112" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B112" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C112" s="18" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+    </row>
+    <row r="113" spans="1:1">
       <c r="A113" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B113" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C113" s="18" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+    </row>
+    <row r="114" spans="1:1">
       <c r="A114" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B114" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="C114" s="18" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+    </row>
+    <row r="115" spans="1:1">
       <c r="A115" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B115" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="C115" s="18" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+    </row>
+    <row r="116" spans="1:1">
       <c r="A116" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B116" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C116" s="18" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+    </row>
+    <row r="117" spans="1:1">
       <c r="A117" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B117" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C117" s="18" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+    </row>
+    <row r="118" spans="1:1">
       <c r="A118" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B118" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C118" s="18" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+    </row>
+    <row r="119" spans="1:1">
       <c r="A119" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B119" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C119" s="18" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+    </row>
+    <row r="120" spans="1:1">
       <c r="A120" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B120" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C120" s="18" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
+    </row>
+    <row r="121" spans="1:1">
       <c r="A121" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="B121" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="C121" s="18" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+    </row>
+    <row r="122" spans="1:1">
       <c r="A122" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B122" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C122" s="18" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
+    </row>
+    <row r="123" spans="1:1">
       <c r="A123" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B123" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C123" s="18" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
+    </row>
+    <row r="124" spans="1:1">
       <c r="A124" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B124" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="C124" s="18" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
+    </row>
+    <row r="125" spans="1:1">
       <c r="A125" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B125" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C125" s="18" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
+    </row>
+    <row r="126" spans="1:1">
       <c r="A126" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B126" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C126" s="18" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
+    </row>
+    <row r="127" spans="1:1">
       <c r="A127" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B127" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C127" s="18" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
+    </row>
+    <row r="128" spans="1:1">
       <c r="A128" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B128" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C128" s="18" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
+    </row>
+    <row r="129" spans="1:1">
       <c r="A129" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B129" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C129" s="18" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
+    </row>
+    <row r="130" spans="1:1">
       <c r="A130" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="B130" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C130" s="18" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
+    </row>
+    <row r="131" spans="1:1">
       <c r="A131" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B131" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="C131" s="18" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
+    </row>
+    <row r="132" spans="1:1">
       <c r="A132" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B132" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C132" s="18" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
+    </row>
+    <row r="133" spans="1:1">
       <c r="A133" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B133" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C133" s="18" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
+    </row>
+    <row r="134" spans="1:1">
       <c r="A134" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B134" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="C134" s="18" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
+    </row>
+    <row r="135" spans="1:1">
       <c r="A135" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B135" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C135" s="18" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
+    </row>
+    <row r="136" spans="1:1">
       <c r="A136" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="B136" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C136" s="18" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
+    </row>
+    <row r="137" spans="1:1">
       <c r="A137" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B137" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C137" s="18" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
+    </row>
+    <row r="138" spans="1:1">
       <c r="A138" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B138" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C138" s="18" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
+    </row>
+    <row r="139" spans="1:1">
       <c r="A139" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B139" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="C139" s="18" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
+    </row>
+    <row r="140" spans="1:1">
       <c r="A140" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B140" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="C140" s="18" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
+    </row>
+    <row r="141" spans="1:1">
       <c r="A141" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B141" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C141" s="18" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
+    </row>
+    <row r="142" spans="1:1">
       <c r="A142" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B142" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C142" s="18" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
+    </row>
+    <row r="143" spans="1:1">
       <c r="A143" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B143" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C143" s="18" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
+    </row>
+    <row r="144" spans="1:1">
       <c r="A144" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B144" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C144" s="18" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
+    </row>
+    <row r="145" spans="1:1">
       <c r="A145" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B145" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C145" s="18" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
+    </row>
+    <row r="146" spans="1:1">
       <c r="A146" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B146" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="C146" s="18" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
+    </row>
+    <row r="147" spans="1:1">
       <c r="A147" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B147" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="C147" s="18" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
+    </row>
+    <row r="148" spans="1:1">
       <c r="A148" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B148" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C148" s="18" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
+    </row>
+    <row r="149" spans="1:1">
       <c r="A149" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B149" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C149" s="18" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
+    </row>
+    <row r="150" spans="1:1">
       <c r="A150" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B150" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C150" s="18" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
+    </row>
+    <row r="151" spans="1:1">
       <c r="A151" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B151" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="C151" s="18" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
+    </row>
+    <row r="152" spans="1:1">
       <c r="A152" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B152" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C152" s="18" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
+    </row>
+    <row r="153" spans="1:1">
       <c r="A153" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B153" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C153" s="18" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
+    </row>
+    <row r="154" spans="1:1">
       <c r="A154" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B154" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C154" s="18" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
+    </row>
+    <row r="155" spans="1:1">
       <c r="A155" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B155" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C155" s="18" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
+    </row>
+    <row r="156" spans="1:1">
       <c r="A156" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B156" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C156" s="18" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
+    </row>
+    <row r="157" spans="1:1">
       <c r="A157" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="B157" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C157" s="18" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
+    </row>
+    <row r="158" spans="1:1">
       <c r="A158" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B158" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C158" s="18" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
+    </row>
+    <row r="159" spans="1:1">
       <c r="A159" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="B159" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C159" s="18" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
+    </row>
+    <row r="160" spans="1:1">
       <c r="A160" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B160" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="C160" s="18" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
+    </row>
+    <row r="161" spans="1:1">
       <c r="A161" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="B161" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C161" s="18" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
+    </row>
+    <row r="162" spans="1:1">
       <c r="A162" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B162" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="C162" s="18" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
+    </row>
+    <row r="163" spans="1:1">
       <c r="A163" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B163" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="C163" s="18" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
+    </row>
+    <row r="164" spans="1:1">
       <c r="A164" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B164" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="C164" s="18" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
+    </row>
+    <row r="165" spans="1:1">
       <c r="A165" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B165" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C165" s="18" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
+    </row>
+    <row r="166" spans="1:1">
       <c r="A166" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="B166" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C166" s="18" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
+    </row>
+    <row r="167" spans="1:1">
       <c r="A167" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B167" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="C167" s="18" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
+    </row>
+    <row r="168" spans="1:1">
       <c r="A168" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B168" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="C168" s="18" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
+    </row>
+    <row r="169" spans="1:1">
       <c r="A169" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B169" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="C169" s="18" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
+    </row>
+    <row r="170" spans="1:1">
       <c r="A170" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B170" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C170" s="18" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
+    </row>
+    <row r="171" spans="1:1">
       <c r="A171" s="18" t="s">
         <v>318</v>
-      </c>
-      <c r="B171" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="C171" s="18" t="s">
-        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -5932,7 +4939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2888357-E040-45AE-90AA-C2F78C3ED7B6}">
   <dimension ref="B2:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -5948,7 +4955,7 @@
       <c r="C4" t="s">
         <v>320</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="22"/>
       <c r="F4" t="s">
         <v>710</v>
       </c>
@@ -6012,7 +5019,7 @@
       <c r="A2" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>674</v>
       </c>
       <c r="V2" s="12"/>
@@ -6133,10 +5140,10 @@
       <c r="D9" s="11" t="s">
         <v>620</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="19" t="s">
         <v>680</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="19" t="s">
         <v>673</v>
       </c>
       <c r="G9" s="11" t="s">
@@ -6145,37 +5152,37 @@
       <c r="H9" s="11" t="s">
         <v>631</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="19" t="s">
         <v>688</v>
       </c>
-      <c r="J9" s="21" t="s">
+      <c r="J9" s="19" t="s">
         <v>689</v>
       </c>
-      <c r="K9" s="21" t="s">
+      <c r="K9" s="19" t="s">
         <v>690</v>
       </c>
       <c r="L9" s="11" t="s">
         <v>644</v>
       </c>
-      <c r="M9" s="21" t="s">
+      <c r="M9" s="19" t="s">
         <v>647</v>
       </c>
       <c r="N9" s="11" t="s">
         <v>650</v>
       </c>
-      <c r="O9" s="21" t="s">
+      <c r="O9" s="19" t="s">
         <v>695</v>
       </c>
-      <c r="P9" s="21" t="s">
+      <c r="P9" s="19" t="s">
         <v>697</v>
       </c>
-      <c r="R9" s="21" t="s">
+      <c r="R9" s="19" t="s">
         <v>699</v>
       </c>
-      <c r="S9" s="21" t="s">
+      <c r="S9" s="19" t="s">
         <v>702</v>
       </c>
-      <c r="V9" s="21" t="s">
+      <c r="V9" s="19" t="s">
         <v>706</v>
       </c>
     </row>
@@ -6201,7 +5208,7 @@
       <c r="J10" s="11" t="s">
         <v>691</v>
       </c>
-      <c r="K10" s="23" t="s">
+      <c r="K10" s="21" t="s">
         <v>640</v>
       </c>
       <c r="M10" s="11" t="s">
@@ -6296,52 +5303,52 @@
       <c r="C15" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="19" t="s">
         <v>619</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="19" t="s">
         <v>622</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="19" t="s">
         <v>624</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="19" t="s">
         <v>627</v>
       </c>
       <c r="H15" s="16" t="s">
         <v>630</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="I15" s="19" t="s">
         <v>632</v>
       </c>
-      <c r="J15" s="21" t="s">
+      <c r="J15" s="19" t="s">
         <v>637</v>
       </c>
-      <c r="K15" s="21" t="s">
+      <c r="K15" s="19" t="s">
         <v>638</v>
       </c>
       <c r="L15" s="16" t="s">
         <v>643</v>
       </c>
-      <c r="M15" s="21" t="s">
+      <c r="M15" s="19" t="s">
         <v>646</v>
       </c>
-      <c r="N15" s="21" t="s">
+      <c r="N15" s="19" t="s">
         <v>649</v>
       </c>
-      <c r="O15" s="21" t="s">
+      <c r="O15" s="19" t="s">
         <v>652</v>
       </c>
-      <c r="P15" s="21" t="s">
+      <c r="P15" s="19" t="s">
         <v>653</v>
       </c>
       <c r="Q15" s="14" t="s">
         <v>655</v>
       </c>
-      <c r="R15" s="21" t="s">
+      <c r="R15" s="19" t="s">
         <v>657</v>
       </c>
-      <c r="S15" s="21" t="s">
+      <c r="S15" s="19" t="s">
         <v>659</v>
       </c>
       <c r="T15" s="14" t="s">
@@ -6379,7 +5386,7 @@
       <c r="J16" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="K16" s="23" t="s">
+      <c r="K16" s="21" t="s">
         <v>640</v>
       </c>
       <c r="L16" s="11" t="s">

--- a/call_of_cthulhu/magic/CJE/旧版手册呪文_仅名称.xlsx
+++ b/call_of_cthulhu/magic/CJE/旧版手册呪文_仅名称.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d2c6fb186291c3cd/github/alll/call_of_cthulhu/magic/CJE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="922" documentId="13_ncr:1_{E16AFC2B-E770-4477-B830-0D96E1264306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F9393E7-34CD-4DED-BFB8-BF6E5369D22F}"/>
+  <xr:revisionPtr revIDLastSave="925" documentId="13_ncr:1_{E16AFC2B-E770-4477-B830-0D96E1264306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F53DC70A-EDC6-4E44-87E8-D03C0C563D9C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1770" windowWidth="12792" windowHeight="10512" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1770" windowWidth="12792" windowHeight="10512" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AZ目录" sheetId="2" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="颜色对应" sheetId="5" r:id="rId3"/>
     <sheet name="本体+颜色+目录修改" sheetId="9" r:id="rId4"/>
     <sheet name="缺英即可导入" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet2 (2)" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet2 (3)" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet2 (4)" sheetId="8" r:id="rId8"/>
+    <sheet name="都缺1" sheetId="6" r:id="rId6"/>
+    <sheet name="都缺2" sheetId="7" r:id="rId7"/>
+    <sheet name="都缺3" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2679,7 +2679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52749F28-BD4A-42E3-8FF0-74AD0ADF569F}">
   <dimension ref="A1:C171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C165" sqref="C165"/>
     </sheetView>
   </sheetViews>
@@ -3574,7 +3574,7 @@
   <dimension ref="A1:F166"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
@@ -4999,7 +4999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F96A3617-A054-470C-8EEA-BD111A2FEE05}">
   <dimension ref="A1:X20"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
@@ -6916,7 +6916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{901C7F52-414D-439D-B3EF-40928BEF37C1}">
   <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Y24" sqref="Y24"/>
     </sheetView>
   </sheetViews>

--- a/call_of_cthulhu/magic/CJE/旧版手册呪文_仅名称.xlsx
+++ b/call_of_cthulhu/magic/CJE/旧版手册呪文_仅名称.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d2c6fb186291c3cd/github/alll/call_of_cthulhu/magic/CJE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="925" documentId="13_ncr:1_{E16AFC2B-E770-4477-B830-0D96E1264306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F53DC70A-EDC6-4E44-87E8-D03C0C563D9C}"/>
+  <xr:revisionPtr revIDLastSave="926" documentId="13_ncr:1_{E16AFC2B-E770-4477-B830-0D96E1264306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79F1A7A8-4AE3-49E8-9081-D2023502EB11}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1770" windowWidth="12792" windowHeight="10512" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1770" windowWidth="12792" windowHeight="10512" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AZ目录" sheetId="2" r:id="rId1"/>
@@ -2038,9 +2038,6 @@
     <t>提问箱</t>
   </si>
   <si>
-    <t>Github - Issues</t>
-  </si>
-  <si>
     <r>
       <t>汇报错误等请使用以下渠道、</t>
     </r>
@@ -2194,6 +2191,9 @@
   </si>
   <si>
     <t>英+简日</t>
+  </si>
+  <si>
+    <t>Github Issues</t>
   </si>
 </sst>
 </file>
@@ -2679,8 +2679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52749F28-BD4A-42E3-8FF0-74AD0ADF569F}">
   <dimension ref="A1:C171"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C165" sqref="C165"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4"/>
@@ -2693,7 +2693,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="23" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C1" s="23"/>
     </row>
@@ -2702,7 +2702,7 @@
         <v>318</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>668</v>
+        <v>711</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>665</v>
@@ -2726,7 +2726,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="23" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C5" s="23"/>
     </row>
@@ -4957,7 +4957,7 @@
       </c>
       <c r="E4" s="22"/>
       <c r="F4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -4973,17 +4973,17 @@
     <row r="8" spans="2:6">
       <c r="B8" s="9"/>
       <c r="C8" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="15"/>
       <c r="C10" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" t="s">
@@ -4999,7 +4999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F96A3617-A054-470C-8EEA-BD111A2FEE05}">
   <dimension ref="A1:X20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
@@ -5020,7 +5020,7 @@
         <v>317</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="V2" s="12"/>
       <c r="X2" s="11"/>
@@ -5141,10 +5141,10 @@
         <v>620</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>628</v>
@@ -5153,13 +5153,13 @@
         <v>631</v>
       </c>
       <c r="I9" s="19" t="s">
+        <v>687</v>
+      </c>
+      <c r="J9" s="19" t="s">
         <v>688</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="K9" s="19" t="s">
         <v>689</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>690</v>
       </c>
       <c r="L9" s="11" t="s">
         <v>644</v>
@@ -5171,19 +5171,19 @@
         <v>650</v>
       </c>
       <c r="O9" s="19" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="P9" s="19" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="R9" s="19" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="S9" s="19" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="V9" s="19" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="15.3" customHeight="1">
@@ -5191,46 +5191,46 @@
         <v>318</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K10" s="21" t="s">
         <v>640</v>
       </c>
       <c r="M10" s="11" t="s">
+        <v>691</v>
+      </c>
+      <c r="N10" s="11" t="s">
         <v>692</v>
       </c>
-      <c r="N10" s="11" t="s">
-        <v>693</v>
-      </c>
       <c r="O10" s="11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>262</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="S10" s="11" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="V10" s="12" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="15.3" customHeight="1">
@@ -5238,28 +5238,28 @@
         <v>318</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="P11" s="11" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="S11" s="11" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="V11" s="12"/>
     </row>
@@ -5268,13 +5268,13 @@
         <v>318</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="S12" s="11" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="V12" s="12"/>
     </row>
@@ -5283,16 +5283,16 @@
         <v>318</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="V13" s="12"/>
     </row>
     <row r="14" spans="1:24" ht="15.3" customHeight="1">
       <c r="F14" s="11" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="V14" s="12"/>
     </row>

--- a/call_of_cthulhu/magic/CJE/旧版手册呪文_仅名称.xlsx
+++ b/call_of_cthulhu/magic/CJE/旧版手册呪文_仅名称.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d2c6fb186291c3cd/github/alll/call_of_cthulhu/magic/CJE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="926" documentId="13_ncr:1_{E16AFC2B-E770-4477-B830-0D96E1264306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79F1A7A8-4AE3-49E8-9081-D2023502EB11}"/>
+  <xr:revisionPtr revIDLastSave="931" documentId="13_ncr:1_{E16AFC2B-E770-4477-B830-0D96E1264306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18CD3821-B413-4B3F-8B7A-A7CE21583A9B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1770" windowWidth="12792" windowHeight="10512" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6414" yWindow="2142" windowWidth="12792" windowHeight="10512" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AZ目录" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="713">
   <si>
     <t>Key</t>
   </si>
@@ -2194,6 +2194,9 @@
   </si>
   <si>
     <t>Github Issues</t>
+  </si>
+  <si>
+    <t>QQ群</t>
   </si>
 </sst>
 </file>
@@ -2408,10 +2411,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2680,7 +2679,7 @@
   <dimension ref="A1:C171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4"/>
@@ -2721,14 +2720,25 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>712</v>
+      </c>
+      <c r="C4" s="18">
+        <v>2150284119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="18" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="B5" s="23" t="s">
+    <row r="6" spans="1:3">
+      <c r="B6" s="23" t="s">
         <v>669</v>
       </c>
-      <c r="C5" s="23"/>
+      <c r="C6" s="23"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="18" t="s">
@@ -3557,7 +3567,7 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B1:C1"/>
   </mergeCells>
   <hyperlinks>
@@ -3574,7 +3584,7 @@
   <dimension ref="A1:F166"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
@@ -4999,7 +5009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F96A3617-A054-470C-8EEA-BD111A2FEE05}">
   <dimension ref="A1:X20"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
@@ -5462,7 +5472,7 @@
   <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="Y22" sqref="Y22"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15.3" customHeight="1"/>
@@ -6206,7 +6216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD23C35-6CB4-4BD3-8AEB-D709EB4CE400}">
   <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
       <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
